--- a/m2 esercizio d2/ESERCIZIO M2 2.xlsx
+++ b/m2 esercizio d2/ESERCIZIO M2 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna Maria\Desktop\epicode\modulo 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980F005A-5A02-40D9-95A6-454037972172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A0C9AA-DE1E-41C2-B358-77F45EF7C965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="10276" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2835" yWindow="2798" windowWidth="12150" windowHeight="7282" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="15" r:id="rId1"/>
@@ -2684,747 +2684,9 @@
     <cellStyle name="Valuta 2" xfId="9" xr:uid="{207091F5-721C-455F-B370-D6B4AD03B231}"/>
     <cellStyle name="Valuta_gestione clienti(out)-1" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="24">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="3"/>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -3519,7 +2781,54 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="3"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -4506,41 +3815,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4630,7 +3909,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-131D-4813-8E4A-DF8266CDB578}"/>
+              <c16:uniqueId val="{00000000-F87E-4DB9-83B0-2357D5645FF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4722,7 +4001,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-131D-4813-8E4A-DF8266CDB578}"/>
+              <c16:uniqueId val="{00000001-F87E-4DB9-83B0-2357D5645FF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4736,11 +4015,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1461064928"/>
-        <c:axId val="1461056768"/>
+        <c:axId val="1079075359"/>
+        <c:axId val="1079071519"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1461064928"/>
+        <c:axId val="1079075359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4783,7 +4062,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1461056768"/>
+        <c:crossAx val="1079071519"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4791,7 +4070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1461056768"/>
+        <c:axId val="1079071519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4842,7 +4121,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1461064928"/>
+        <c:crossAx val="1079075359"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4886,7 +4165,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6651,22 +5930,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>450056</xdr:colOff>
+      <xdr:colOff>121443</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>488156</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>159543</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafico 4">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6228CF24-F608-ABC7-95C5-489E1D88BFDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD43D075-C55E-60C7-EDF0-9FE7753F7AA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6688,13 +5967,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6519BA90-73C7-4C17-BB64-5E1776A6710A}" name="Tabella2" displayName="Tabella2" ref="B3:D10" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6519BA90-73C7-4C17-BB64-5E1776A6710A}" name="Tabella2" displayName="Tabella2" ref="B3:D10" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome " dataDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome " dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Punteggio"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ESITO" dataDxfId="84">
-      <calculatedColumnFormula>VLOOKUP(C4,$F$3:$H$6,2,0)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ESITO" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(Tabella2[[#This Row],[Punteggio]],$F$3:$H$6,2,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6702,11 +5981,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{854F3F22-7C20-4EC8-9586-0FC61EEE12AF}" name="spesemese" displayName="spesemese" ref="C3:D16" totalsRowCount="1" headerRowDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{854F3F22-7C20-4EC8-9586-0FC61EEE12AF}" name="spesemese" displayName="spesemese" ref="C3:D16" totalsRowCount="1" headerRowDxfId="19">
   <autoFilter ref="C3:D15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="MESE" totalsRowLabel="Totale" dataDxfId="87" totalsRowCellStyle="Normale 2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SPESA" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="85" totalsRowCellStyle="Normale 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="MESE" totalsRowLabel="Totale" dataDxfId="18" totalsRowCellStyle="Normale 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SPESA" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16" totalsRowCellStyle="Normale 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7003,7 +6282,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -7011,7 +6290,7 @@
     <col min="1" max="1" width="41.19921875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.46484375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.46484375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1328125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.796875" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.53125" style="10" customWidth="1"/>
     <col min="7" max="7" width="7.1328125" style="10" customWidth="1"/>
@@ -7072,8 +6351,8 @@
         <v>281000</v>
       </c>
       <c r="D5" s="29">
-        <f t="shared" ref="D5:D68" si="0">C5*IVATOT</f>
-        <v>56200</v>
+        <f>C5+(C5*IVATOT)</f>
+        <v>337200</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>_xlfn.CONCAT(A6," ",C5)</f>
@@ -7091,11 +6370,11 @@
         <v>323000</v>
       </c>
       <c r="D6" s="29">
-        <f t="shared" si="0"/>
-        <v>64600</v>
+        <f>C6+(C6*IVATOT)</f>
+        <v>387600</v>
       </c>
       <c r="E6" s="10" t="str">
-        <f t="shared" ref="E6:E69" si="1">_xlfn.CONCAT(A7," ",C6)</f>
+        <f t="shared" ref="E6:E69" si="0">_xlfn.CONCAT(A7," ",C6)</f>
         <v>MON.SVGA 0,28 15" AOC 5NLR OSD 323000</v>
       </c>
     </row>
@@ -7110,11 +6389,11 @@
         <v>344000</v>
       </c>
       <c r="D7" s="29">
+        <f>C7+(C7*IVATOT)</f>
+        <v>412800</v>
+      </c>
+      <c r="E7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>68800</v>
-      </c>
-      <c r="E7" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>MON.SVGA 0,28 15" AOC 5GLR+ OSD 344000</v>
       </c>
     </row>
@@ -7129,11 +6408,11 @@
         <v>361000</v>
       </c>
       <c r="D8" s="29">
+        <f>C8+(C8*IVATOT)</f>
+        <v>433200</v>
+      </c>
+      <c r="E8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>72200</v>
-      </c>
-      <c r="E8" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>MON. 15" 0.23 CM500ET HITACHI 361000</v>
       </c>
     </row>
@@ -7148,11 +6427,11 @@
         <v>521000</v>
       </c>
       <c r="D9" s="29">
+        <f>C9+(C9*IVATOT)</f>
+        <v>625200</v>
+      </c>
+      <c r="E9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>104200</v>
-      </c>
-      <c r="E9" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>MON. 15" 0.28 A500 NEC 521000</v>
       </c>
     </row>
@@ -7167,11 +6446,11 @@
         <v>527000</v>
       </c>
       <c r="D10" s="29">
+        <f>C10+(C10*IVATOT)</f>
+        <v>632400</v>
+      </c>
+      <c r="E10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>105400</v>
-      </c>
-      <c r="E10" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>MON.SVGA 0,28 17" AOC 7VLR 527000</v>
       </c>
     </row>
@@ -7186,11 +6465,11 @@
         <v>626000</v>
       </c>
       <c r="D11" s="29">
+        <f>C11+(C11*IVATOT)</f>
+        <v>751200</v>
+      </c>
+      <c r="E11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>125200</v>
-      </c>
-      <c r="E11" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>MON. 15" 0.25 E500 NEC, Croma Clear 626000</v>
       </c>
     </row>
@@ -7205,11 +6484,11 @@
         <v>656000</v>
       </c>
       <c r="D12" s="29">
+        <f>C12+(C12*IVATOT)</f>
+        <v>787200</v>
+      </c>
+      <c r="E12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>131200</v>
-      </c>
-      <c r="E12" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>MON.SVGA 0,26 17" AOC 7GLR OSD 656000</v>
       </c>
     </row>
@@ -7224,11 +6503,11 @@
         <v>666000</v>
       </c>
       <c r="D13" s="29">
+        <f>C13+(C13*IVATOT)</f>
+        <v>799200</v>
+      </c>
+      <c r="E13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>133200</v>
-      </c>
-      <c r="E13" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>MON. 17" 0.28 A700 NEC 666000</v>
       </c>
     </row>
@@ -7243,11 +6522,11 @@
         <v>882000</v>
       </c>
       <c r="D14" s="29">
+        <f>C14+(C14*IVATOT)</f>
+        <v>1058400</v>
+      </c>
+      <c r="E14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>176400</v>
-      </c>
-      <c r="E14" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>MON. 17" 0.21 CM630ET HITACHI 882000</v>
       </c>
     </row>
@@ -7262,11 +6541,11 @@
         <v>1108000</v>
       </c>
       <c r="D15" s="29">
+        <f>C15+(C15*IVATOT)</f>
+        <v>1329600</v>
+      </c>
+      <c r="E15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>221600</v>
-      </c>
-      <c r="E15" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>MON. 17" 0.25 P750 NEC, Croma Clear 1108000</v>
       </c>
     </row>
@@ -7281,11 +6560,11 @@
         <v>1316000</v>
       </c>
       <c r="D16" s="29">
+        <f>C16+(C16*IVATOT)</f>
+        <v>1579200</v>
+      </c>
+      <c r="E16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>263200</v>
-      </c>
-      <c r="E16" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>MON. 19" 0.22 CM751ET HITACHI 1316000</v>
       </c>
     </row>
@@ -7300,11 +6579,11 @@
         <v>1594000</v>
       </c>
       <c r="D17" s="29">
+        <f>C17+(C17*IVATOT)</f>
+        <v>1912800</v>
+      </c>
+      <c r="E17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>318800</v>
-      </c>
-      <c r="E17" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>MON. 21" 0.21 CM802ETM HITACHI 1594000</v>
       </c>
     </row>
@@ -7319,11 +6598,11 @@
         <v>2719000</v>
       </c>
       <c r="D18" s="29">
+        <f>C18+(C18*IVATOT)</f>
+        <v>3262800</v>
+      </c>
+      <c r="E18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>543800</v>
-      </c>
-      <c r="E18" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>MONITOR  LCD 2719000</v>
       </c>
     </row>
@@ -7333,11 +6612,11 @@
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="29">
+        <f>C19+(C19*IVATOT)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="10" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">MON. 14" LCD 0.28 LCD400V NEC </v>
       </c>
     </row>
@@ -7352,11 +6631,11 @@
         <v>4092000</v>
       </c>
       <c r="D20" s="29">
+        <f>C20+(C20*IVATOT)</f>
+        <v>4910400</v>
+      </c>
+      <c r="E20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>818400</v>
-      </c>
-      <c r="E20" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>MON. 20" LCD 0.31 LCD2000sf NEC 4092000</v>
       </c>
     </row>
@@ -7371,11 +6650,11 @@
         <v>13859000</v>
       </c>
       <c r="D21" s="29">
+        <f>C21+(C21*IVATOT)</f>
+        <v>16630800</v>
+      </c>
+      <c r="E21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>2771800</v>
-      </c>
-      <c r="E21" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>SCHEDE MADRI 13859000</v>
       </c>
     </row>
@@ -7385,11 +6664,11 @@
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="29">
+        <f>C22+(C22*IVATOT)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="10" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">M/B ASUS SP97-V SVGA SHARE MEMORY </v>
       </c>
     </row>
@@ -7404,11 +6683,11 @@
         <v>167000</v>
       </c>
       <c r="D23" s="29">
+        <f>C23+(C23*IVATOT)</f>
+        <v>200400</v>
+      </c>
+      <c r="E23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>33400</v>
-      </c>
-      <c r="E23" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS TXP4 167000</v>
       </c>
     </row>
@@ -7423,11 +6702,11 @@
         <v>202000</v>
       </c>
       <c r="D24" s="29">
+        <f>C24+(C24*IVATOT)</f>
+        <v>242400</v>
+      </c>
+      <c r="E24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>40400</v>
-      </c>
-      <c r="E24" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS SP98AGP-X ATX 202000</v>
       </c>
     </row>
@@ -7442,11 +6721,11 @@
         <v>203000</v>
       </c>
       <c r="D25" s="29">
+        <f>C25+(C25*IVATOT)</f>
+        <v>243600</v>
+      </c>
+      <c r="E25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>40600</v>
-      </c>
-      <c r="E25" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS TX-97 - E  203000</v>
       </c>
     </row>
@@ -7461,11 +6740,11 @@
         <v>234000</v>
       </c>
       <c r="D26" s="29">
+        <f>C26+(C26*IVATOT)</f>
+        <v>280800</v>
+      </c>
+      <c r="E26" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>46800</v>
-      </c>
-      <c r="E26" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS TX-97  234000</v>
       </c>
     </row>
@@ -7480,11 +6759,11 @@
         <v>252000</v>
       </c>
       <c r="D27" s="29">
+        <f>C27+(C27*IVATOT)</f>
+        <v>302400</v>
+      </c>
+      <c r="E27" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>50400</v>
-      </c>
-      <c r="E27" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS TX-97 - XE ATX NO AUDIO 252000</v>
       </c>
     </row>
@@ -7499,11 +6778,11 @@
         <v>259000</v>
       </c>
       <c r="D28" s="29">
+        <f>C28+(C28*IVATOT)</f>
+        <v>310800</v>
+      </c>
+      <c r="E28" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>51800</v>
-      </c>
-      <c r="E28" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS P2L97-B 259000</v>
       </c>
     </row>
@@ -7518,11 +6797,11 @@
         <v>269000</v>
       </c>
       <c r="D29" s="29">
+        <f>C29+(C29*IVATOT)</f>
+        <v>322800</v>
+      </c>
+      <c r="E29" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>53800</v>
-      </c>
-      <c r="E29" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS  P55T2P4 430HX 512K P5 269000</v>
       </c>
     </row>
@@ -7537,11 +6816,11 @@
         <v>271000</v>
       </c>
       <c r="D30" s="29">
+        <f>C30+(C30*IVATOT)</f>
+        <v>325200</v>
+      </c>
+      <c r="E30" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>54200</v>
-      </c>
-      <c r="E30" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS P2L97 ATX 271000</v>
       </c>
     </row>
@@ -7556,11 +6835,11 @@
         <v>292000</v>
       </c>
       <c r="D31" s="29">
+        <f>C31+(C31*IVATOT)</f>
+        <v>350400</v>
+      </c>
+      <c r="E31" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>58400</v>
-      </c>
-      <c r="E31" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS XP55T2P4 512K ATX P5 292000</v>
       </c>
     </row>
@@ -7575,11 +6854,11 @@
         <v>293000</v>
       </c>
       <c r="D32" s="29">
+        <f>C32+(C32*IVATOT)</f>
+        <v>351600</v>
+      </c>
+      <c r="E32" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>58600</v>
-      </c>
-      <c r="E32" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS TX-97 -XE ATX -CREATIVE VIBRA16 293000</v>
       </c>
     </row>
@@ -7594,11 +6873,11 @@
         <v>307000</v>
       </c>
       <c r="D33" s="29">
+        <f>C33+(C33*IVATOT)</f>
+        <v>368400</v>
+      </c>
+      <c r="E33" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>61400</v>
-      </c>
-      <c r="E33" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS P2L97-A ATX+VGA AGP 4MB 307000</v>
       </c>
     </row>
@@ -7613,11 +6892,11 @@
         <v>440000</v>
       </c>
       <c r="D34" s="29">
+        <f>C34+(C34*IVATOT)</f>
+        <v>528000</v>
+      </c>
+      <c r="E34" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>88000</v>
-      </c>
-      <c r="E34" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS P2L97-S ADAPTEC ATX 440000</v>
       </c>
     </row>
@@ -7632,11 +6911,11 @@
         <v>487000</v>
       </c>
       <c r="D35" s="29">
+        <f>C35+(C35*IVATOT)</f>
+        <v>584400</v>
+      </c>
+      <c r="E35" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>97400</v>
-      </c>
-      <c r="E35" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS P65UP5+P55T2D 512K DUAL P5 487000</v>
       </c>
     </row>
@@ -7651,11 +6930,11 @@
         <v>566000</v>
       </c>
       <c r="D36" s="29">
+        <f>C36+(C36*IVATOT)</f>
+        <v>679200</v>
+      </c>
+      <c r="E36" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>113200</v>
-      </c>
-      <c r="E36" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS P2L97-DS DUAL P II 566000</v>
       </c>
     </row>
@@ -7670,11 +6949,11 @@
         <v>802000</v>
       </c>
       <c r="D37" s="29">
+        <f>C37+(C37*IVATOT)</f>
+        <v>962400</v>
+      </c>
+      <c r="E37" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>160400</v>
-      </c>
-      <c r="E37" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>M/B ASUS P65UP8+PKND DUAL PII 802000</v>
       </c>
     </row>
@@ -7689,11 +6968,11 @@
         <v>1579000</v>
       </c>
       <c r="D38" s="29">
+        <f>C38+(C38*IVATOT)</f>
+        <v>1894800</v>
+      </c>
+      <c r="E38" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>315800</v>
-      </c>
-      <c r="E38" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>SCHEDE VIDEO 1579000</v>
       </c>
     </row>
@@ -7703,11 +6982,11 @@
       </c>
       <c r="C39" s="32"/>
       <c r="D39" s="29">
+        <f>C39+(C39*IVATOT)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="10" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">SVGA S3 3D PRO VIRGE 2MB </v>
       </c>
     </row>
@@ -7722,11 +7001,11 @@
         <v>70000</v>
       </c>
       <c r="D40" s="29">
+        <f>C40+(C40*IVATOT)</f>
+        <v>84000</v>
+      </c>
+      <c r="E40" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>14000</v>
-      </c>
-      <c r="E40" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>CREATIVE ECLIPSE 4MB 70000</v>
       </c>
     </row>
@@ -7741,11 +7020,11 @@
         <v>104000</v>
       </c>
       <c r="D41" s="29">
+        <f>C41+(C41*IVATOT)</f>
+        <v>124800</v>
+      </c>
+      <c r="E41" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>20800</v>
-      </c>
-      <c r="E41" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>ADD-ON MATROX m3D 4MB 104000</v>
       </c>
     </row>
@@ -7760,11 +7039,11 @@
         <v>127000</v>
       </c>
       <c r="D42" s="29">
+        <f>C42+(C42*IVATOT)</f>
+        <v>152400</v>
+      </c>
+      <c r="E42" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>25400</v>
-      </c>
-      <c r="E42" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>ASUS 3DP-V264GT2 4MB TV-OUT 127000</v>
       </c>
     </row>
@@ -7779,11 +7058,11 @@
         <v>162000</v>
       </c>
       <c r="D43" s="29">
+        <f>C43+(C43*IVATOT)</f>
+        <v>194400</v>
+      </c>
+      <c r="E43" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>32400</v>
-      </c>
-      <c r="E43" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>SVGA MYSTIQUE 220 "BULK" 4MB 162000</v>
       </c>
     </row>
@@ -7798,11 +7077,11 @@
         <v>179000</v>
       </c>
       <c r="D44" s="29">
+        <f>C44+(C44*IVATOT)</f>
+        <v>214800</v>
+      </c>
+      <c r="E44" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>35800</v>
-      </c>
-      <c r="E44" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>ASUS 3DP-V385GX2 4MB TV-OUT  179000</v>
       </c>
     </row>
@@ -7817,11 +7096,11 @@
         <v>186000</v>
       </c>
       <c r="D45" s="29">
+        <f>C45+(C45*IVATOT)</f>
+        <v>223200</v>
+      </c>
+      <c r="E45" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>37200</v>
-      </c>
-      <c r="E45" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>ASUS V385GX2 AGP 4MB TV-OUT 186000</v>
       </c>
     </row>
@@ -7836,11 +7115,11 @@
         <v>186000</v>
       </c>
       <c r="D46" s="29">
+        <f>C46+(C46*IVATOT)</f>
+        <v>223200</v>
+      </c>
+      <c r="E46" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>37200</v>
-      </c>
-      <c r="E46" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>CREATIVE GRAPHIC EXXTREME 4MB 186000</v>
       </c>
     </row>
@@ -7855,11 +7134,11 @@
         <v>203000</v>
       </c>
       <c r="D47" s="29">
+        <f>C47+(C47*IVATOT)</f>
+        <v>243600</v>
+      </c>
+      <c r="E47" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>40600</v>
-      </c>
-      <c r="E47" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>SVGA MYSTIQUE 220  4MB 203000</v>
       </c>
     </row>
@@ -7874,11 +7153,11 @@
         <v>212000</v>
       </c>
       <c r="D48" s="29">
+        <f>C48+(C48*IVATOT)</f>
+        <v>254400</v>
+      </c>
+      <c r="E48" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>42400</v>
-      </c>
-      <c r="E48" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>SVGA ACC. 3D/FX VOODO RUSH 4MB 212000</v>
       </c>
     </row>
@@ -7893,11 +7172,11 @@
         <v>222000</v>
       </c>
       <c r="D49" s="29">
+        <f>C49+(C49*IVATOT)</f>
+        <v>266400</v>
+      </c>
+      <c r="E49" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>44400</v>
-      </c>
-      <c r="E49" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>SVGA ACC. 3D/FX VOODO RUSH 6MB 222000</v>
       </c>
     </row>
@@ -7912,11 +7191,11 @@
         <v>245000</v>
       </c>
       <c r="D50" s="29">
+        <f>C50+(C50*IVATOT)</f>
+        <v>294000</v>
+      </c>
+      <c r="E50" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>49000</v>
-      </c>
-      <c r="E50" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>RAINBOW R. TV 245000</v>
       </c>
     </row>
@@ -7931,11 +7210,11 @@
         <v>251000</v>
       </c>
       <c r="D51" s="29">
+        <f>C51+(C51*IVATOT)</f>
+        <v>301200</v>
+      </c>
+      <c r="E51" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>50200</v>
-      </c>
-      <c r="E51" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>ASUS 3D EXPLORER AGP 4MB TV-OUT 251000</v>
       </c>
     </row>
@@ -7950,11 +7229,11 @@
         <v>257000</v>
       </c>
       <c r="D52" s="29">
+        <f>C52+(C52*IVATOT)</f>
+        <v>308400</v>
+      </c>
+      <c r="E52" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>51400</v>
-      </c>
-      <c r="E52" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>ASUS 3D EXPLORER PCI 4MB TV-OUT 257000</v>
       </c>
     </row>
@@ -7969,11 +7248,11 @@
         <v>269000</v>
       </c>
       <c r="D53" s="29">
+        <f>C53+(C53*IVATOT)</f>
+        <v>322800</v>
+      </c>
+      <c r="E53" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>53800</v>
-      </c>
-      <c r="E53" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>SVGA MILLENNIUM II 4MB "BULK" 269000</v>
       </c>
     </row>
@@ -7988,11 +7267,11 @@
         <v>314000</v>
       </c>
       <c r="D54" s="29">
+        <f>C54+(C54*IVATOT)</f>
+        <v>376800</v>
+      </c>
+      <c r="E54" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>62800</v>
-      </c>
-      <c r="E54" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>SVGA MILLENNIUM II 4MB AGP 314000</v>
       </c>
     </row>
@@ -8007,11 +7286,11 @@
         <v>325000</v>
       </c>
       <c r="D55" s="29">
+        <f>C55+(C55*IVATOT)</f>
+        <v>390000</v>
+      </c>
+      <c r="E55" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>65000</v>
-      </c>
-      <c r="E55" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>RAINBOW R. STUDIO 325000</v>
       </c>
     </row>
@@ -8026,11 +7305,11 @@
         <v>347000</v>
       </c>
       <c r="D56" s="29">
+        <f>C56+(C56*IVATOT)</f>
+        <v>416400</v>
+      </c>
+      <c r="E56" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>69400</v>
-      </c>
-      <c r="E56" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>SVGA MILLENNIUM II 4MB 347000</v>
       </c>
     </row>
@@ -8045,11 +7324,11 @@
         <v>369000</v>
       </c>
       <c r="D57" s="29">
+        <f>C57+(C57*IVATOT)</f>
+        <v>442800</v>
+      </c>
+      <c r="E57" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>73800</v>
-      </c>
-      <c r="E57" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>CREATIVE VOODO-2 8MB Add-on 369000</v>
       </c>
     </row>
@@ -8064,11 +7343,11 @@
         <v>402000</v>
       </c>
       <c r="D58" s="29">
+        <f>C58+(C58*IVATOT)</f>
+        <v>482400</v>
+      </c>
+      <c r="E58" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>80400</v>
-      </c>
-      <c r="E58" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>SVGA MILLENNIUM II 8MB "BULK" 402000</v>
       </c>
     </row>
@@ -8083,11 +7362,11 @@
         <v>471000</v>
       </c>
       <c r="D59" s="29">
+        <f>C59+(C59*IVATOT)</f>
+        <v>565200</v>
+      </c>
+      <c r="E59" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>94200</v>
-      </c>
-      <c r="E59" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>SVGA MILLENNIUM II 8MB AGP 471000</v>
       </c>
     </row>
@@ -8102,11 +7381,11 @@
         <v>476000</v>
       </c>
       <c r="D60" s="29">
+        <f>C60+(C60*IVATOT)</f>
+        <v>571200</v>
+      </c>
+      <c r="E60" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>95200</v>
-      </c>
-      <c r="E60" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>CREATIVE VOODO-2 12MB Add-on 476000</v>
       </c>
     </row>
@@ -8121,11 +7400,11 @@
         <v>492000</v>
       </c>
       <c r="D61" s="29">
+        <f>C61+(C61*IVATOT)</f>
+        <v>590400</v>
+      </c>
+      <c r="E61" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>98400</v>
-      </c>
-      <c r="E61" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>VIDEO &amp; GRAPHIC KIT 492000</v>
       </c>
     </row>
@@ -8140,11 +7419,11 @@
         <v>531000</v>
       </c>
       <c r="D62" s="29">
+        <f>C62+(C62*IVATOT)</f>
+        <v>637200</v>
+      </c>
+      <c r="E62" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>106200</v>
-      </c>
-      <c r="E62" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>SVGA MILLENNIUM II 8MB 531000</v>
       </c>
     </row>
@@ -8159,11 +7438,11 @@
         <v>552000</v>
       </c>
       <c r="D63" s="29">
+        <f>C63+(C63*IVATOT)</f>
+        <v>662400</v>
+      </c>
+      <c r="E63" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>110400</v>
-      </c>
-      <c r="E63" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>ASUS 3DP- V500TX 16MB Work.Prof.3d 552000</v>
       </c>
     </row>
@@ -8178,11 +7457,11 @@
         <v>1487000</v>
       </c>
       <c r="D64" s="29">
+        <f>C64+(C64*IVATOT)</f>
+        <v>1784400</v>
+      </c>
+      <c r="E64" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>297400</v>
-      </c>
-      <c r="E64" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>SCHEDE I/O 1487000</v>
       </c>
     </row>
@@ -8192,11 +7471,11 @@
       </c>
       <c r="C65" s="32"/>
       <c r="D65" s="29">
+        <f>C65+(C65*IVATOT)</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="10" t="str">
-        <f t="shared" si="1"/>
         <v xml:space="preserve">Contr. PCI SCSI </v>
       </c>
     </row>
@@ -8211,11 +7490,11 @@
         <v>101000</v>
       </c>
       <c r="D66" s="29">
+        <f>C66+(C66*IVATOT)</f>
+        <v>121200</v>
+      </c>
+      <c r="E66" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>20200</v>
-      </c>
-      <c r="E66" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>Contr. PCI EIDE 101000</v>
       </c>
     </row>
@@ -8230,11 +7509,11 @@
         <v>38000</v>
       </c>
       <c r="D67" s="29">
+        <f>C67+(C67*IVATOT)</f>
+        <v>45600</v>
+      </c>
+      <c r="E67" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>7600</v>
-      </c>
-      <c r="E67" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>Contr. PCI SC200 SCSI-2 38000</v>
       </c>
     </row>
@@ -8249,11 +7528,11 @@
         <v>137000</v>
       </c>
       <c r="D68" s="29">
+        <f>C68+(C68*IVATOT)</f>
+        <v>164400</v>
+      </c>
+      <c r="E68" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>27400</v>
-      </c>
-      <c r="E68" s="10" t="str">
-        <f t="shared" si="1"/>
         <v>Contr. PCI SC875 Wide SCSI, SCSI-2 137000</v>
       </c>
     </row>
@@ -8268,11 +7547,11 @@
         <v>222000</v>
       </c>
       <c r="D69" s="29">
-        <f t="shared" ref="D69:D132" si="2">C69*IVATOT</f>
-        <v>44400</v>
+        <f>C69+(C69*IVATOT)</f>
+        <v>266400</v>
       </c>
       <c r="E69" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Contr. PCI AHA 2940AU SCSI-2 222000</v>
       </c>
     </row>
@@ -8287,11 +7566,11 @@
         <v>501000</v>
       </c>
       <c r="D70" s="29">
-        <f t="shared" si="2"/>
-        <v>100200</v>
+        <f>C70+(C70*IVATOT)</f>
+        <v>601200</v>
       </c>
       <c r="E70" s="10" t="str">
-        <f t="shared" ref="E70:E133" si="3">_xlfn.CONCAT(A71," ",C70)</f>
+        <f t="shared" ref="E70:E133" si="1">_xlfn.CONCAT(A71," ",C70)</f>
         <v>Contr. PCI AHA 2940UW Wide SCSI OEM 501000</v>
       </c>
     </row>
@@ -8306,11 +7585,11 @@
         <v>428000</v>
       </c>
       <c r="D71" s="29">
-        <f t="shared" si="2"/>
-        <v>85600</v>
+        <f>C71+(C71*IVATOT)</f>
+        <v>513600</v>
       </c>
       <c r="E71" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Contr. PCI AHA 2940UW Wide SCSI 428000</v>
       </c>
     </row>
@@ -8325,11 +7604,11 @@
         <v>561000</v>
       </c>
       <c r="D72" s="29">
-        <f t="shared" si="2"/>
-        <v>112200</v>
+        <f>C72+(C72*IVATOT)</f>
+        <v>673200</v>
       </c>
       <c r="E72" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Contr.PCI DA2100 Dual Wide SCSI 561000</v>
       </c>
     </row>
@@ -8344,11 +7623,11 @@
         <v>1578000</v>
       </c>
       <c r="D73" s="29">
-        <f t="shared" si="2"/>
-        <v>315600</v>
+        <f>C73+(C73*IVATOT)</f>
+        <v>1893600</v>
       </c>
       <c r="E73" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Scheda 2 porte seriali, 1 porta parallela 1578000</v>
       </c>
     </row>
@@ -8363,11 +7642,11 @@
         <v>34000</v>
       </c>
       <c r="D74" s="29">
-        <f t="shared" si="2"/>
-        <v>6800</v>
+        <f>C74+(C74*IVATOT)</f>
+        <v>40800</v>
       </c>
       <c r="E74" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Scheda singola seriale 34000</v>
       </c>
     </row>
@@ -8382,11 +7661,11 @@
         <v>20000</v>
       </c>
       <c r="D75" s="29">
-        <f t="shared" si="2"/>
-        <v>4000</v>
+        <f>C75+(C75*IVATOT)</f>
+        <v>24000</v>
       </c>
       <c r="E75" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Scheda doppia seriale 20000</v>
       </c>
     </row>
@@ -8401,11 +7680,11 @@
         <v>23000</v>
       </c>
       <c r="D76" s="29">
-        <f t="shared" si="2"/>
-        <v>4600</v>
+        <f>C76+(C76*IVATOT)</f>
+        <v>27600</v>
       </c>
       <c r="E76" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Scheda 4 porte seriali 23000</v>
       </c>
     </row>
@@ -8417,11 +7696,11 @@
         <v>98000</v>
       </c>
       <c r="D77" s="29">
-        <f t="shared" si="2"/>
-        <v>19600</v>
+        <f>C77+(C77*IVATOT)</f>
+        <v>117600</v>
       </c>
       <c r="E77" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Scheda 8 porte seriali 98000</v>
       </c>
     </row>
@@ -8433,11 +7712,11 @@
         <v>251000</v>
       </c>
       <c r="D78" s="29">
-        <f t="shared" si="2"/>
-        <v>50200</v>
+        <f>C78+(C78*IVATOT)</f>
+        <v>301200</v>
       </c>
       <c r="E78" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Scheda singola parallela 251000</v>
       </c>
     </row>
@@ -8449,11 +7728,11 @@
         <v>15000</v>
       </c>
       <c r="D79" s="29">
-        <f t="shared" si="2"/>
-        <v>3000</v>
+        <f>C79+(C79*IVATOT)</f>
+        <v>18000</v>
       </c>
       <c r="E79" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Scheda 2 porte joystick 15000</v>
       </c>
     </row>
@@ -8465,11 +7744,11 @@
         <v>14000</v>
       </c>
       <c r="D80" s="29">
-        <f t="shared" si="2"/>
-        <v>2800</v>
+        <f>C80+(C80*IVATOT)</f>
+        <v>16800</v>
       </c>
       <c r="E80" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>HARD DISK 14000</v>
       </c>
     </row>
@@ -8479,11 +7758,11 @@
       </c>
       <c r="C81" s="32"/>
       <c r="D81" s="29">
-        <f t="shared" si="2"/>
+        <f>C81+(C81*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E81" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">HARD DISK 2.5"  2,1GB U.Dma </v>
       </c>
     </row>
@@ -8498,11 +7777,11 @@
         <v>399000</v>
       </c>
       <c r="D82" s="29">
-        <f t="shared" si="2"/>
-        <v>79800</v>
+        <f>C82+(C82*IVATOT)</f>
+        <v>478800</v>
       </c>
       <c r="E82" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>HD 2,1 GB Ultra DMA 5400rpm 399000</v>
       </c>
     </row>
@@ -8517,11 +7796,11 @@
         <v>259000</v>
       </c>
       <c r="D83" s="29">
-        <f t="shared" si="2"/>
-        <v>51800</v>
+        <f>C83+(C83*IVATOT)</f>
+        <v>310800</v>
       </c>
       <c r="E83" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>HD 3,2 GB Ultra DMA 5400rpm 259000</v>
       </c>
     </row>
@@ -8536,11 +7815,11 @@
         <v>324000</v>
       </c>
       <c r="D84" s="29">
-        <f t="shared" si="2"/>
-        <v>64800</v>
+        <f>C84+(C84*IVATOT)</f>
+        <v>388800</v>
       </c>
       <c r="E84" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>HD 4,3 GB Ultra DMA 5400rpm 324000</v>
       </c>
     </row>
@@ -8555,11 +7834,11 @@
         <v>378000</v>
       </c>
       <c r="D85" s="29">
-        <f t="shared" si="2"/>
-        <v>75600</v>
+        <f>C85+(C85*IVATOT)</f>
+        <v>453600</v>
       </c>
       <c r="E85" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>HD 5,2 GB Ultra DMA 5400rpm 378000</v>
       </c>
     </row>
@@ -8574,11 +7853,11 @@
         <v>469000</v>
       </c>
       <c r="D86" s="29">
-        <f t="shared" si="2"/>
-        <v>93800</v>
+        <f>C86+(C86*IVATOT)</f>
+        <v>562800</v>
       </c>
       <c r="E86" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>HD 6,4 GB Ultra DMA 5400rpm 469000</v>
       </c>
     </row>
@@ -8593,11 +7872,11 @@
         <v>556000</v>
       </c>
       <c r="D87" s="29">
-        <f t="shared" si="2"/>
-        <v>111200</v>
+        <f>C87+(C87*IVATOT)</f>
+        <v>667200</v>
       </c>
       <c r="E87" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>HD 2 GB SCSI III 5400 rpm 556000</v>
       </c>
     </row>
@@ -8612,11 +7891,11 @@
         <v>476000</v>
       </c>
       <c r="D88" s="29">
-        <f t="shared" si="2"/>
-        <v>95200</v>
+        <f>C88+(C88*IVATOT)</f>
+        <v>571200</v>
       </c>
       <c r="E88" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>HD 3,2 GB SCSI III 5400rpm 476000</v>
       </c>
     </row>
@@ -8631,11 +7910,11 @@
         <v>477000</v>
       </c>
       <c r="D89" s="29">
-        <f t="shared" si="2"/>
-        <v>95400</v>
+        <f>C89+(C89*IVATOT)</f>
+        <v>572400</v>
       </c>
       <c r="E89" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>HD 4,3 GB SCSI 5400 rpm 477000</v>
       </c>
     </row>
@@ -8650,11 +7929,11 @@
         <v>556000</v>
       </c>
       <c r="D90" s="29">
-        <f t="shared" si="2"/>
-        <v>111200</v>
+        <f>C90+(C90*IVATOT)</f>
+        <v>667200</v>
       </c>
       <c r="E90" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>HD 4,5 GB SCSI ULTRA WIDE 7200rpm 556000</v>
       </c>
     </row>
@@ -8669,11 +7948,11 @@
         <v>695000</v>
       </c>
       <c r="D91" s="29">
-        <f t="shared" si="2"/>
-        <v>139000</v>
+        <f>C91+(C91*IVATOT)</f>
+        <v>834000</v>
       </c>
       <c r="E91" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>HD 4,5 GB SCSI ULTRA WIDE 10.000rpm 695000</v>
       </c>
     </row>
@@ -8688,11 +7967,11 @@
         <v>1279000</v>
       </c>
       <c r="D92" s="29">
-        <f t="shared" si="2"/>
-        <v>255800</v>
+        <f>C92+(C92*IVATOT)</f>
+        <v>1534800</v>
       </c>
       <c r="E92" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FDD 1,44MB 1279000</v>
       </c>
     </row>
@@ -8707,11 +7986,11 @@
         <v>35000</v>
       </c>
       <c r="D93" s="29">
-        <f t="shared" si="2"/>
-        <v>7000</v>
+        <f>C93+(C93*IVATOT)</f>
+        <v>42000</v>
       </c>
       <c r="E93" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FLOPPY DRIVE 120MB 35000</v>
       </c>
     </row>
@@ -8726,11 +8005,11 @@
         <v>175000</v>
       </c>
       <c r="D94" s="29">
-        <f t="shared" si="2"/>
-        <v>35000</v>
+        <f>C94+(C94*IVATOT)</f>
+        <v>210000</v>
       </c>
       <c r="E94" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>ZIP DRIVE 100MB PARALL. 175000</v>
       </c>
     </row>
@@ -8745,11 +8024,11 @@
         <v>272000</v>
       </c>
       <c r="D95" s="29">
-        <f t="shared" si="2"/>
-        <v>54400</v>
+        <f>C95+(C95*IVATOT)</f>
+        <v>326400</v>
       </c>
       <c r="E95" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>ZIP ATAPI 100MB INTERNO 272000</v>
       </c>
     </row>
@@ -8764,11 +8043,11 @@
         <v>198000</v>
       </c>
       <c r="D96" s="29">
-        <f t="shared" si="2"/>
-        <v>39600</v>
+        <f>C96+(C96*IVATOT)</f>
+        <v>237600</v>
       </c>
       <c r="E96" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>ZIP DRIVE 100MB SCSI 198000</v>
       </c>
     </row>
@@ -8783,11 +8062,11 @@
         <v>290000</v>
       </c>
       <c r="D97" s="29">
-        <f t="shared" si="2"/>
-        <v>58000</v>
+        <f>C97+(C97*IVATOT)</f>
+        <v>348000</v>
       </c>
       <c r="E97" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>JAZ DRIVE 1GB INT. 290000</v>
       </c>
     </row>
@@ -8802,11 +8081,11 @@
         <v>589000</v>
       </c>
       <c r="D98" s="29">
-        <f t="shared" si="2"/>
-        <v>117800</v>
+        <f>C98+(C98*IVATOT)</f>
+        <v>706800</v>
       </c>
       <c r="E98" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>JAZ DRIVE 1GB EXT. 589000</v>
       </c>
     </row>
@@ -8821,11 +8100,11 @@
         <v>743000</v>
       </c>
       <c r="D99" s="29">
-        <f t="shared" si="2"/>
-        <v>148600</v>
+        <f>C99+(C99*IVATOT)</f>
+        <v>891600</v>
       </c>
       <c r="E99" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>KIT 10  CARTUCCE ZIP DRIVE 743000</v>
       </c>
     </row>
@@ -8840,11 +8119,11 @@
         <v>271000</v>
       </c>
       <c r="D100" s="29">
-        <f t="shared" si="2"/>
-        <v>54200</v>
+        <f>C100+(C100*IVATOT)</f>
+        <v>325200</v>
       </c>
       <c r="E100" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>KIT 3 CARTUCCE JAZ DRIVE 271000</v>
       </c>
     </row>
@@ -8859,11 +8138,11 @@
         <v>632000</v>
       </c>
       <c r="D101" s="29">
-        <f t="shared" si="2"/>
-        <v>126400</v>
+        <f>C101+(C101*IVATOT)</f>
+        <v>758400</v>
       </c>
       <c r="E101" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>KIT 3 CARTUCCE 120MB 3M 632000</v>
       </c>
     </row>
@@ -8878,11 +8157,11 @@
         <v>90000</v>
       </c>
       <c r="D102" s="29">
-        <f t="shared" si="2"/>
-        <v>18000</v>
+        <f>C102+(C102*IVATOT)</f>
+        <v>108000</v>
       </c>
       <c r="E102" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FRAME HDD  90000</v>
       </c>
     </row>
@@ -8897,11 +8176,11 @@
         <v>4000</v>
       </c>
       <c r="D103" s="29">
-        <f t="shared" si="2"/>
-        <v>800</v>
+        <f>C103+(C103*IVATOT)</f>
+        <v>4800</v>
       </c>
       <c r="E103" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FRAME FDD  4000</v>
       </c>
     </row>
@@ -8916,11 +8195,11 @@
         <v>5000</v>
       </c>
       <c r="D104" s="29">
-        <f t="shared" si="2"/>
-        <v>1000</v>
+        <f>C104+(C104*IVATOT)</f>
+        <v>6000</v>
       </c>
       <c r="E104" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FRAME REMOVIBILE 3.5" 5000</v>
       </c>
     </row>
@@ -8935,11 +8214,11 @@
         <v>41000</v>
       </c>
       <c r="D105" s="29">
-        <f t="shared" si="2"/>
-        <v>8200</v>
+        <f>C105+(C105*IVATOT)</f>
+        <v>49200</v>
       </c>
       <c r="E105" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>MAGNETO-OTTICI 41000</v>
       </c>
     </row>
@@ -8949,11 +8228,11 @@
       </c>
       <c r="C106" s="32"/>
       <c r="D106" s="29">
-        <f t="shared" si="2"/>
+        <f>C106+(C106*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E106" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">M.O. + CD 4X,  PD 2000 INT. 650 MB </v>
       </c>
     </row>
@@ -8968,11 +8247,11 @@
         <v>737000</v>
       </c>
       <c r="D107" s="29">
-        <f t="shared" si="2"/>
-        <v>147400</v>
+        <f>C107+(C107*IVATOT)</f>
+        <v>884400</v>
       </c>
       <c r="E107" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>M.O. + CD 4X,  PD 2000 EXT. 650 MB 737000</v>
       </c>
     </row>
@@ -8987,11 +8266,11 @@
         <v>910000</v>
       </c>
       <c r="D108" s="29">
-        <f t="shared" si="2"/>
-        <v>182000</v>
+        <f>C108+(C108*IVATOT)</f>
+        <v>1092000</v>
       </c>
       <c r="E108" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>KIT 5 CARTUCCE 650 MB 910000</v>
       </c>
     </row>
@@ -9003,11 +8282,11 @@
         <v>241000</v>
       </c>
       <c r="D109" s="29">
-        <f t="shared" si="2"/>
-        <v>48200</v>
+        <f>C109+(C109*IVATOT)</f>
+        <v>289200</v>
       </c>
       <c r="E109" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>CD ROM 241000</v>
       </c>
     </row>
@@ -9017,11 +8296,11 @@
       </c>
       <c r="C110" s="32"/>
       <c r="D110" s="29">
-        <f t="shared" si="2"/>
+        <f>C110+(C110*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E110" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">CD ROM 24X HITACHI CDR 8330 </v>
       </c>
     </row>
@@ -9036,11 +8315,11 @@
         <v>112000</v>
       </c>
       <c r="D111" s="29">
-        <f t="shared" si="2"/>
-        <v>22400</v>
+        <f>C111+(C111*IVATOT)</f>
+        <v>134400</v>
       </c>
       <c r="E111" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>CD ROM 24X CREATIVE 112000</v>
       </c>
     </row>
@@ -9055,11 +8334,11 @@
         <v>113000</v>
       </c>
       <c r="D112" s="29">
-        <f t="shared" si="2"/>
-        <v>22600</v>
+        <f>C112+(C112*IVATOT)</f>
+        <v>135600</v>
       </c>
       <c r="E112" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>CD ROM 24X PIONEER 502-S Bulk 113000</v>
       </c>
     </row>
@@ -9074,11 +8353,11 @@
         <v>121000</v>
       </c>
       <c r="D113" s="29">
-        <f t="shared" si="2"/>
-        <v>24200</v>
+        <f>C113+(C113*IVATOT)</f>
+        <v>145200</v>
       </c>
       <c r="E113" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>CD ROM 34X ASUS 121000</v>
       </c>
     </row>
@@ -9093,11 +8372,11 @@
         <v>160000</v>
       </c>
       <c r="D114" s="29">
-        <f t="shared" si="2"/>
-        <v>32000</v>
+        <f>C114+(C114*IVATOT)</f>
+        <v>192000</v>
       </c>
       <c r="E114" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>CD ROM 24X SCSI NEC 160000</v>
       </c>
     </row>
@@ -9112,11 +8391,11 @@
         <v>195000</v>
       </c>
       <c r="D115" s="29">
-        <f t="shared" si="2"/>
-        <v>39000</v>
+        <f>C115+(C115*IVATOT)</f>
+        <v>234000</v>
       </c>
       <c r="E115" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>CD ROM 32X SCSI WAITEC 195000</v>
       </c>
     </row>
@@ -9131,11 +8410,11 @@
         <v>215000</v>
       </c>
       <c r="D116" s="29">
-        <f t="shared" si="2"/>
-        <v>43000</v>
+        <f>C116+(C116*IVATOT)</f>
+        <v>258000</v>
       </c>
       <c r="E116" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>CD ROM PLEXTOR PX-32TSI 215000</v>
       </c>
     </row>
@@ -9150,11 +8429,11 @@
         <v>321000</v>
       </c>
       <c r="D117" s="29">
-        <f t="shared" si="2"/>
-        <v>64200</v>
+        <f>C117+(C117*IVATOT)</f>
+        <v>385200</v>
       </c>
       <c r="E117" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>DVD CREATIVE KIT ENCORE DXR2 321000</v>
       </c>
     </row>
@@ -9169,11 +8448,11 @@
         <v>614000</v>
       </c>
       <c r="D118" s="29">
-        <f t="shared" si="2"/>
-        <v>122800</v>
+        <f>C118+(C118*IVATOT)</f>
+        <v>736800</v>
       </c>
       <c r="E118" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>MASTERIZZATORI 614000</v>
       </c>
     </row>
@@ -9183,11 +8462,11 @@
       </c>
       <c r="C119" s="32"/>
       <c r="D119" s="29">
-        <f t="shared" si="2"/>
+        <f>C119+(C119*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E119" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">CONFEZIONE 10 CDR 74' </v>
       </c>
     </row>
@@ -9202,11 +8481,11 @@
         <v>30000</v>
       </c>
       <c r="D120" s="29">
-        <f t="shared" si="2"/>
-        <v>6000</v>
+        <f>C120+(C120*IVATOT)</f>
+        <v>36000</v>
       </c>
       <c r="E120" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>CD RISCRIVIBILE 74' 30000</v>
       </c>
     </row>
@@ -9221,11 +8500,11 @@
         <v>34000</v>
       </c>
       <c r="D121" s="29">
-        <f t="shared" si="2"/>
-        <v>6800</v>
+        <f>C121+(C121*IVATOT)</f>
+        <v>40800</v>
       </c>
       <c r="E121" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>CONFEZIONE 10 CDR 74' KODAK 34000</v>
       </c>
     </row>
@@ -9240,11 +8519,11 @@
         <v>35000</v>
       </c>
       <c r="D122" s="29">
-        <f t="shared" si="2"/>
-        <v>7000</v>
+        <f>C122+(C122*IVATOT)</f>
+        <v>42000</v>
       </c>
       <c r="E122" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>SOFTWARE LABELLER CD KIT 35000</v>
       </c>
     </row>
@@ -9259,11 +8538,11 @@
         <v>77000</v>
       </c>
       <c r="D123" s="29">
-        <f t="shared" si="2"/>
-        <v>15400</v>
+        <f>C123+(C123*IVATOT)</f>
+        <v>92400</v>
       </c>
       <c r="E123" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>WAITEC WT48/1 - GEAR - 77000</v>
       </c>
     </row>
@@ -9278,11 +8557,11 @@
         <v>723000</v>
       </c>
       <c r="D124" s="29">
-        <f t="shared" si="2"/>
-        <v>144600</v>
+        <f>C124+(C124*IVATOT)</f>
+        <v>867600</v>
       </c>
       <c r="E124" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>WAITEC 2036EI/1 - SOFTWARE  723000</v>
       </c>
     </row>
@@ -9297,11 +8576,11 @@
         <v>742000</v>
       </c>
       <c r="D125" s="29">
-        <f t="shared" si="2"/>
-        <v>148400</v>
+        <f>C125+(C125*IVATOT)</f>
+        <v>890400</v>
       </c>
       <c r="E125" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RICOH MP6200ADP + SOFT.+5 CDR 742000</v>
       </c>
     </row>
@@ -9316,11 +8595,11 @@
         <v>778000</v>
       </c>
       <c r="D126" s="29">
-        <f t="shared" si="2"/>
-        <v>155600</v>
+        <f>C126+(C126*IVATOT)</f>
+        <v>933600</v>
       </c>
       <c r="E126" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>RICOH MP6200SR - SOFTWARE SCSI 778000</v>
       </c>
     </row>
@@ -9335,11 +8614,11 @@
         <v>878000</v>
       </c>
       <c r="D127" s="29">
-        <f t="shared" si="2"/>
-        <v>175600</v>
+        <f>C127+(C127*IVATOT)</f>
+        <v>1053600</v>
       </c>
       <c r="E127" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>WAITEC 2026/1 - SOFTWARE SCSI 878000</v>
       </c>
     </row>
@@ -9354,11 +8633,11 @@
         <v>883000</v>
       </c>
       <c r="D128" s="29">
-        <f t="shared" si="2"/>
-        <v>176600</v>
+        <f>C128+(C128*IVATOT)</f>
+        <v>1059600</v>
       </c>
       <c r="E128" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>CDR 480i PLASMON EASY CD 883000</v>
       </c>
     </row>
@@ -9373,11 +8652,11 @@
         <v>913000</v>
       </c>
       <c r="D129" s="29">
-        <f t="shared" si="2"/>
-        <v>182600</v>
+        <f>C129+(C129*IVATOT)</f>
+        <v>1095600</v>
       </c>
       <c r="E129" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>CDR 480e PLASMON EASY CD 913000</v>
       </c>
     </row>
@@ -9392,11 +8671,11 @@
         <v>1125000</v>
       </c>
       <c r="D130" s="29">
-        <f t="shared" si="2"/>
-        <v>225000</v>
+        <f>C130+(C130*IVATOT)</f>
+        <v>1350000</v>
       </c>
       <c r="E130" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>MEMORIE 1125000</v>
       </c>
     </row>
@@ -9406,11 +8685,11 @@
       </c>
       <c r="C131" s="32"/>
       <c r="D131" s="29">
-        <f t="shared" si="2"/>
+        <f>C131+(C131*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E131" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">SIMM 8MB 72 PIN (EDO) </v>
       </c>
     </row>
@@ -9422,11 +8701,11 @@
         <v>33000</v>
       </c>
       <c r="D132" s="29">
-        <f t="shared" si="2"/>
-        <v>6600</v>
+        <f>C132+(C132*IVATOT)</f>
+        <v>39600</v>
       </c>
       <c r="E132" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>SIMM 16MB 72 PIN (EDO) 33000</v>
       </c>
     </row>
@@ -9438,11 +8717,11 @@
         <v>52000</v>
       </c>
       <c r="D133" s="29">
-        <f t="shared" ref="D133:D196" si="4">C133*IVATOT</f>
-        <v>10400</v>
+        <f>C133+(C133*IVATOT)</f>
+        <v>62400</v>
       </c>
       <c r="E133" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>SIMM 32MB 72 PIN (EDO) 52000</v>
       </c>
     </row>
@@ -9454,11 +8733,11 @@
         <v>97000</v>
       </c>
       <c r="D134" s="29">
-        <f t="shared" si="4"/>
-        <v>19400</v>
+        <f>C134+(C134*IVATOT)</f>
+        <v>116400</v>
       </c>
       <c r="E134" s="10" t="str">
-        <f t="shared" ref="E134:E197" si="5">_xlfn.CONCAT(A135," ",C134)</f>
+        <f t="shared" ref="E134:E197" si="2">_xlfn.CONCAT(A135," ",C134)</f>
         <v>MODEM FAX - VIDEOCAMERA 97000</v>
       </c>
     </row>
@@ -9471,11 +8750,11 @@
       </c>
       <c r="C135" s="32"/>
       <c r="D135" s="29">
-        <f t="shared" si="4"/>
+        <f>C135+(C135*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E135" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">M/F MOTOROLA 3400PRO 28800 EXT </v>
       </c>
     </row>
@@ -9490,11 +8769,11 @@
         <v>131000</v>
       </c>
       <c r="D136" s="29">
-        <f t="shared" si="4"/>
-        <v>26200</v>
+        <f>C136+(C136*IVATOT)</f>
+        <v>157200</v>
       </c>
       <c r="E136" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>M/F LEONARDO PC 33600 INT OEM 131000</v>
       </c>
     </row>
@@ -9509,11 +8788,11 @@
         <v>169000</v>
       </c>
       <c r="D137" s="29">
-        <f t="shared" si="4"/>
-        <v>33800</v>
+        <f>C137+(C137*IVATOT)</f>
+        <v>202800</v>
       </c>
       <c r="E137" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>M/F LEONARDO PC 33600 EXT 169000</v>
       </c>
     </row>
@@ -9528,11 +8807,11 @@
         <v>190000</v>
       </c>
       <c r="D138" s="29">
-        <f t="shared" si="4"/>
-        <v>38000</v>
+        <f>C138+(C138*IVATOT)</f>
+        <v>228000</v>
       </c>
       <c r="E138" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>M/F MOTOROLA 56K  EXT BULK 190000</v>
       </c>
     </row>
@@ -9547,11 +8826,11 @@
         <v>191000</v>
       </c>
       <c r="D139" s="29">
-        <f t="shared" si="4"/>
-        <v>38200</v>
+        <f>C139+(C139*IVATOT)</f>
+        <v>229200</v>
       </c>
       <c r="E139" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>M/F LEONARDO PC 33600 INT 191000</v>
       </c>
     </row>
@@ -9566,11 +8845,11 @@
         <v>197000</v>
       </c>
       <c r="D140" s="29">
-        <f t="shared" si="4"/>
-        <v>39400</v>
+        <f>C140+(C140*IVATOT)</f>
+        <v>236400</v>
       </c>
       <c r="E140" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>M/F TIZIANO 33600 EXT 197000</v>
       </c>
     </row>
@@ -9585,11 +8864,11 @@
         <v>201000</v>
       </c>
       <c r="D141" s="29">
-        <f t="shared" si="4"/>
-        <v>40200</v>
+        <f>C141+(C141*IVATOT)</f>
+        <v>241200</v>
       </c>
       <c r="E141" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>M/F SPORTSTER FLASH 33600 EXT ITA  201000</v>
       </c>
     </row>
@@ -9604,11 +8883,11 @@
         <v>220000</v>
       </c>
       <c r="D142" s="29">
-        <f t="shared" si="4"/>
-        <v>44000</v>
+        <f>C142+(C142*IVATOT)</f>
+        <v>264000</v>
       </c>
       <c r="E142" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>M/F MOTOROLA 56K  EXT 220000</v>
       </c>
     </row>
@@ -9623,11 +8902,11 @@
         <v>250000</v>
       </c>
       <c r="D143" s="29">
-        <f t="shared" si="4"/>
-        <v>50000</v>
+        <f>C143+(C143*IVATOT)</f>
+        <v>300000</v>
       </c>
       <c r="E143" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>M/F LEONARDO  56K  EXT 250000</v>
       </c>
     </row>
@@ -9642,11 +8921,11 @@
         <v>257000</v>
       </c>
       <c r="D144" s="29">
-        <f t="shared" si="4"/>
-        <v>51400</v>
+        <f>C144+(C144*IVATOT)</f>
+        <v>308400</v>
       </c>
       <c r="E144" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>M/F TIZIANO 56K EXT 257000</v>
       </c>
     </row>
@@ -9661,11 +8940,11 @@
         <v>278000</v>
       </c>
       <c r="D145" s="29">
-        <f t="shared" si="4"/>
-        <v>55600</v>
+        <f>C145+(C145*IVATOT)</f>
+        <v>333600</v>
       </c>
       <c r="E145" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>M/F SPORTSTER MESSAGE PLUS 278000</v>
       </c>
     </row>
@@ -9680,11 +8959,11 @@
         <v>280000</v>
       </c>
       <c r="D146" s="29">
-        <f t="shared" si="4"/>
-        <v>56000</v>
+        <f>C146+(C146*IVATOT)</f>
+        <v>336000</v>
       </c>
       <c r="E146" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>M/F LEONARDO PCMCIA 33600 280000</v>
       </c>
     </row>
@@ -9699,11 +8978,11 @@
         <v>300000</v>
       </c>
       <c r="D147" s="29">
-        <f t="shared" si="4"/>
-        <v>60000</v>
+        <f>C147+(C147*IVATOT)</f>
+        <v>360000</v>
       </c>
       <c r="E147" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>KIT VIDEOCONFERENZA "GALILEO" 300000</v>
       </c>
     </row>
@@ -9718,11 +8997,11 @@
         <v>305000</v>
       </c>
       <c r="D148" s="29">
-        <f t="shared" si="4"/>
-        <v>61000</v>
+        <f>C148+(C148*IVATOT)</f>
+        <v>366000</v>
       </c>
       <c r="E148" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>MODEM ISDN TINTORETTO EXT. 305000</v>
       </c>
     </row>
@@ -9737,11 +9016,11 @@
         <v>335000</v>
       </c>
       <c r="D149" s="29">
-        <f t="shared" si="4"/>
-        <v>67000</v>
+        <f>C149+(C149*IVATOT)</f>
+        <v>402000</v>
       </c>
       <c r="E149" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>M/F LEONARDO PCMCIA 56K 335000</v>
       </c>
     </row>
@@ -9756,11 +9035,11 @@
         <v>360000</v>
       </c>
       <c r="D150" s="29">
-        <f t="shared" si="4"/>
-        <v>72000</v>
+        <f>C150+(C150*IVATOT)</f>
+        <v>432000</v>
       </c>
       <c r="E150" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>MODEM MOTOROLA ISDN  EXT.64/128K 360000</v>
       </c>
     </row>
@@ -9775,11 +9054,11 @@
         <v>429000</v>
       </c>
       <c r="D151" s="29">
-        <f t="shared" si="4"/>
-        <v>85800</v>
+        <f>C151+(C151*IVATOT)</f>
+        <v>514800</v>
       </c>
       <c r="E151" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>M/F ISDN DONATELLO EXT. 429000</v>
       </c>
     </row>
@@ -9794,11 +9073,11 @@
         <v>701000</v>
       </c>
       <c r="D152" s="29">
-        <f t="shared" si="4"/>
-        <v>140200</v>
+        <f>C152+(C152*IVATOT)</f>
+        <v>841200</v>
       </c>
       <c r="E152" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>MULTIMEDIA 701000</v>
       </c>
     </row>
@@ -9808,11 +9087,11 @@
       </c>
       <c r="C153" s="32"/>
       <c r="D153" s="29">
-        <f t="shared" si="4"/>
+        <f>C153+(C153*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E153" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">SOUND AXP201/U PCI 64 </v>
       </c>
     </row>
@@ -9827,11 +9106,11 @@
         <v>90000</v>
       </c>
       <c r="D154" s="29">
-        <f t="shared" si="4"/>
-        <v>18000</v>
+        <f>C154+(C154*IVATOT)</f>
+        <v>108000</v>
       </c>
       <c r="E154" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>SOUND BLASTER 16 PnP  O.E.M. 90000</v>
       </c>
     </row>
@@ -9846,11 +9125,11 @@
         <v>69000</v>
       </c>
       <c r="D155" s="29">
-        <f t="shared" si="4"/>
-        <v>13800</v>
+        <f>C155+(C155*IVATOT)</f>
+        <v>82800</v>
       </c>
       <c r="E155" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>SOUND BLASTER 16 PnP NO IDE 69000</v>
       </c>
     </row>
@@ -9865,11 +9144,11 @@
         <v>89000</v>
       </c>
       <c r="D156" s="29">
-        <f t="shared" si="4"/>
-        <v>17800</v>
+        <f>C156+(C156*IVATOT)</f>
+        <v>106800</v>
       </c>
       <c r="E156" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>SOUND BLASTER AWE64 STD OEM 89000</v>
       </c>
     </row>
@@ -9884,11 +9163,11 @@
         <v>138000</v>
       </c>
       <c r="D157" s="29">
-        <f t="shared" si="4"/>
-        <v>27600</v>
+        <f>C157+(C157*IVATOT)</f>
+        <v>165600</v>
       </c>
       <c r="E157" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>SOUND BLASTER AWE64 STANDARD 138000</v>
       </c>
     </row>
@@ -9903,11 +9182,11 @@
         <v>196000</v>
       </c>
       <c r="D158" s="29">
-        <f t="shared" si="4"/>
-        <v>39200</v>
+        <f>C158+(C158*IVATOT)</f>
+        <v>235200</v>
       </c>
       <c r="E158" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>SOUND BLASTER AWE64 GOLD PNP  196000</v>
       </c>
     </row>
@@ -9922,11 +9201,11 @@
         <v>329000</v>
       </c>
       <c r="D159" s="29">
-        <f t="shared" si="4"/>
-        <v>65800</v>
+        <f>C159+(C159*IVATOT)</f>
+        <v>394800</v>
       </c>
       <c r="E159" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>KIT "DISCOVERY AWE64" 24X PNP 329000</v>
       </c>
     </row>
@@ -9941,11 +9220,11 @@
         <v>295000</v>
       </c>
       <c r="D160" s="29">
-        <f t="shared" si="4"/>
-        <v>59000</v>
+        <f>C160+(C160*IVATOT)</f>
+        <v>354000</v>
       </c>
       <c r="E160" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>SPEAKERS MLI-699 295000</v>
       </c>
     </row>
@@ -9960,11 +9239,11 @@
         <v>19000</v>
       </c>
       <c r="D161" s="29">
-        <f t="shared" si="4"/>
-        <v>3800</v>
+        <f>C161+(C161*IVATOT)</f>
+        <v>22800</v>
       </c>
       <c r="E161" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>SPEAKER 25 W 19000</v>
       </c>
     </row>
@@ -9979,11 +9258,11 @@
         <v>26000</v>
       </c>
       <c r="D162" s="29">
-        <f t="shared" si="4"/>
-        <v>5200</v>
+        <f>C162+(C162*IVATOT)</f>
+        <v>31200</v>
       </c>
       <c r="E162" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>SPEAKER PROFESSIONAL 70 W 26000</v>
       </c>
     </row>
@@ -9998,11 +9277,11 @@
         <v>28000</v>
       </c>
       <c r="D163" s="29">
-        <f t="shared" si="4"/>
-        <v>5600</v>
+        <f>C163+(C163*IVATOT)</f>
+        <v>33600</v>
       </c>
       <c r="E163" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>ULTRA SPEAKER 130W 28000</v>
       </c>
     </row>
@@ -10017,11 +9296,11 @@
         <v>56000</v>
       </c>
       <c r="D164" s="29">
-        <f t="shared" si="4"/>
-        <v>11200</v>
+        <f>C164+(C164*IVATOT)</f>
+        <v>67200</v>
       </c>
       <c r="E164" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>MICROPROCESSORI 56000</v>
       </c>
     </row>
@@ -10031,11 +9310,11 @@
       </c>
       <c r="C165" s="32"/>
       <c r="D165" s="29">
-        <f t="shared" si="4"/>
+        <f>C165+(C165*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E165" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">PENTIUM 166 INTEL MMX </v>
       </c>
     </row>
@@ -10047,11 +9326,11 @@
         <v>216000</v>
       </c>
       <c r="D166" s="29">
-        <f t="shared" si="4"/>
-        <v>43200</v>
+        <f>C166+(C166*IVATOT)</f>
+        <v>259200</v>
       </c>
       <c r="E166" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>PENTIUM 200 INTEL MMX 216000</v>
       </c>
     </row>
@@ -10063,11 +9342,11 @@
         <v>250000</v>
       </c>
       <c r="D167" s="29">
-        <f t="shared" si="4"/>
-        <v>50000</v>
+        <f>C167+(C167*IVATOT)</f>
+        <v>300000</v>
       </c>
       <c r="E167" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>PENTIUM 233 INTEL MMX 250000</v>
       </c>
     </row>
@@ -10079,11 +9358,11 @@
         <v>382000</v>
       </c>
       <c r="D168" s="29">
-        <f t="shared" si="4"/>
-        <v>76400</v>
+        <f>C168+(C168*IVATOT)</f>
+        <v>458400</v>
       </c>
       <c r="E168" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>PENTIUM II 233 INTEL 512k 382000</v>
       </c>
     </row>
@@ -10095,11 +9374,11 @@
         <v>524000</v>
       </c>
       <c r="D169" s="29">
-        <f t="shared" si="4"/>
-        <v>104800</v>
+        <f>C169+(C169*IVATOT)</f>
+        <v>628800</v>
       </c>
       <c r="E169" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>PENTIUM II 266 INTEL 512k 524000</v>
       </c>
     </row>
@@ -10111,11 +9390,11 @@
         <v>757000</v>
       </c>
       <c r="D170" s="29">
-        <f t="shared" si="4"/>
-        <v>151400</v>
+        <f>C170+(C170*IVATOT)</f>
+        <v>908400</v>
       </c>
       <c r="E170" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>PENTIUM II 300 INTEL 512K 757000</v>
       </c>
     </row>
@@ -10127,11 +9406,11 @@
         <v>1045000</v>
       </c>
       <c r="D171" s="29">
-        <f t="shared" si="4"/>
-        <v>209000</v>
+        <f>C171+(C171*IVATOT)</f>
+        <v>1254000</v>
       </c>
       <c r="E171" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>PENTIUM II 333 INTEL 512K 1045000</v>
       </c>
     </row>
@@ -10143,11 +9422,11 @@
         <v>1568000</v>
       </c>
       <c r="D172" s="29">
-        <f t="shared" si="4"/>
-        <v>313600</v>
+        <f>C172+(C172*IVATOT)</f>
+        <v>1881600</v>
       </c>
       <c r="E172" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>SGS P 166+ 1568000</v>
       </c>
     </row>
@@ -10159,11 +9438,11 @@
         <v>117000</v>
       </c>
       <c r="D173" s="29">
-        <f t="shared" si="4"/>
-        <v>23400</v>
+        <f>C173+(C173*IVATOT)</f>
+        <v>140400</v>
       </c>
       <c r="E173" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>IBM 200 MX 117000</v>
       </c>
     </row>
@@ -10175,11 +9454,11 @@
         <v>158000</v>
       </c>
       <c r="D174" s="29">
-        <f t="shared" si="4"/>
-        <v>31600</v>
+        <f>C174+(C174*IVATOT)</f>
+        <v>189600</v>
       </c>
       <c r="E174" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>IBM 233 MX 158000</v>
       </c>
     </row>
@@ -10191,11 +9470,11 @@
         <v>260000</v>
       </c>
       <c r="D175" s="29">
-        <f t="shared" si="4"/>
-        <v>52000</v>
+        <f>C175+(C175*IVATOT)</f>
+        <v>312000</v>
       </c>
       <c r="E175" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>AMD K6-166 260000</v>
       </c>
     </row>
@@ -10207,11 +9486,11 @@
         <v>193000</v>
       </c>
       <c r="D176" s="29">
-        <f t="shared" si="4"/>
-        <v>38600</v>
+        <f>C176+(C176*IVATOT)</f>
+        <v>231600</v>
       </c>
       <c r="E176" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>AMD K6-200 193000</v>
       </c>
     </row>
@@ -10223,11 +9502,11 @@
         <v>270000</v>
       </c>
       <c r="D177" s="29">
-        <f t="shared" si="4"/>
-        <v>54000</v>
+        <f>C177+(C177*IVATOT)</f>
+        <v>324000</v>
       </c>
       <c r="E177" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>AMD K6-233 270000</v>
       </c>
     </row>
@@ -10239,11 +9518,11 @@
         <v>314000</v>
       </c>
       <c r="D178" s="29">
-        <f t="shared" si="4"/>
-        <v>62800</v>
+        <f>C178+(C178*IVATOT)</f>
+        <v>376800</v>
       </c>
       <c r="E178" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>PENTIUM PRO 180 MZH 314000</v>
       </c>
     </row>
@@ -10255,11 +9534,11 @@
         <v>894000</v>
       </c>
       <c r="D179" s="29">
-        <f t="shared" si="4"/>
-        <v>178800</v>
+        <f>C179+(C179*IVATOT)</f>
+        <v>1072800</v>
       </c>
       <c r="E179" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>PENTIUM PRO 200 MZH 894000</v>
       </c>
     </row>
@@ -10271,11 +9550,11 @@
         <v>1040000</v>
       </c>
       <c r="D180" s="29">
-        <f t="shared" si="4"/>
-        <v>208000</v>
+        <f>C180+(C180*IVATOT)</f>
+        <v>1248000</v>
       </c>
       <c r="E180" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>VENTOLINA PENTIUM 75-166 1040000</v>
       </c>
     </row>
@@ -10287,11 +9566,11 @@
         <v>8000</v>
       </c>
       <c r="D181" s="29">
-        <f t="shared" si="4"/>
-        <v>1600</v>
+        <f>C181+(C181*IVATOT)</f>
+        <v>9600</v>
       </c>
       <c r="E181" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>VENTOLINA PENTIUM 200 8000</v>
       </c>
     </row>
@@ -10303,11 +9582,11 @@
         <v>10000</v>
       </c>
       <c r="D182" s="29">
-        <f t="shared" si="4"/>
-        <v>2000</v>
+        <f>C182+(C182*IVATOT)</f>
+        <v>12000</v>
       </c>
       <c r="E182" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>VENTOLA PER PENTIUM PRO 10000</v>
       </c>
     </row>
@@ -10319,11 +9598,11 @@
         <v>24000</v>
       </c>
       <c r="D183" s="29">
-        <f t="shared" si="4"/>
-        <v>4800</v>
+        <f>C183+(C183*IVATOT)</f>
+        <v>28800</v>
       </c>
       <c r="E183" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>VENTOLINA PER IBM/CYRIX 686 24000</v>
       </c>
     </row>
@@ -10338,11 +9617,11 @@
         <v>11000</v>
       </c>
       <c r="D184" s="29">
-        <f t="shared" si="4"/>
-        <v>2200</v>
+        <f>C184+(C184*IVATOT)</f>
+        <v>13200</v>
       </c>
       <c r="E184" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>VENTOLA 3 PIN per TX97 11000</v>
       </c>
     </row>
@@ -10357,11 +9636,11 @@
         <v>10000</v>
       </c>
       <c r="D185" s="29">
-        <f t="shared" si="4"/>
-        <v>2000</v>
+        <f>C185+(C185*IVATOT)</f>
+        <v>12000</v>
       </c>
       <c r="E185" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>VENTOLA PENTIUM II 10000</v>
       </c>
     </row>
@@ -10376,11 +9655,11 @@
         <v>26000</v>
       </c>
       <c r="D186" s="29">
-        <f t="shared" si="4"/>
-        <v>5200</v>
+        <f>C186+(C186*IVATOT)</f>
+        <v>31200</v>
       </c>
       <c r="E186" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>TASTIERE 26000</v>
       </c>
     </row>
@@ -10390,11 +9669,11 @@
       </c>
       <c r="C187" s="32"/>
       <c r="D187" s="29">
-        <f t="shared" si="4"/>
+        <f>C187+(C187*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E187" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">TAST. ITA 105 TASTI WIN 95 </v>
       </c>
     </row>
@@ -10409,11 +9688,11 @@
         <v>22000</v>
       </c>
       <c r="D188" s="29">
-        <f t="shared" si="4"/>
-        <v>4400</v>
+        <f>C188+(C188*IVATOT)</f>
+        <v>26400</v>
       </c>
       <c r="E188" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>TAST. ITA   79t 22000</v>
       </c>
     </row>
@@ -10428,11 +9707,11 @@
         <v>63000</v>
       </c>
       <c r="D189" s="29">
-        <f t="shared" si="4"/>
-        <v>12600</v>
+        <f>C189+(C189*IVATOT)</f>
+        <v>75600</v>
       </c>
       <c r="E189" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>TAST. USA 79t 63000</v>
       </c>
     </row>
@@ -10447,11 +9726,11 @@
         <v>63000</v>
       </c>
       <c r="D190" s="29">
-        <f t="shared" si="4"/>
-        <v>12600</v>
+        <f>C190+(C190*IVATOT)</f>
+        <v>75600</v>
       </c>
       <c r="E190" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>TAST. USA 105 TASTI WIN95 63000</v>
       </c>
     </row>
@@ -10466,11 +9745,11 @@
         <v>26000</v>
       </c>
       <c r="D191" s="29">
-        <f t="shared" si="4"/>
-        <v>5200</v>
+        <f>C191+(C191*IVATOT)</f>
+        <v>31200</v>
       </c>
       <c r="E191" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>TAST. ITA  105 TASTI NMB, WIN95 26000</v>
       </c>
     </row>
@@ -10485,11 +9764,11 @@
         <v>25000</v>
       </c>
       <c r="D192" s="29">
-        <f t="shared" si="4"/>
-        <v>5000</v>
+        <f>C192+(C192*IVATOT)</f>
+        <v>30000</v>
       </c>
       <c r="E192" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>TAST. ITA  105 TASTI NMB, PS/2 WIN95 25000</v>
       </c>
     </row>
@@ -10504,11 +9783,11 @@
         <v>25000</v>
       </c>
       <c r="D193" s="29">
-        <f t="shared" si="4"/>
-        <v>5000</v>
+        <f>C193+(C193*IVATOT)</f>
+        <v>30000</v>
       </c>
       <c r="E193" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>TAST. ITA 105 TASTI "CYPRESS"  WIN95 25000</v>
       </c>
     </row>
@@ -10523,11 +9802,11 @@
         <v>46000</v>
       </c>
       <c r="D194" s="29">
-        <f t="shared" si="4"/>
-        <v>9200</v>
+        <f>C194+(C194*IVATOT)</f>
+        <v>55200</v>
       </c>
       <c r="E194" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>SCANNER E ACCESSORI 46000</v>
       </c>
     </row>
@@ -10537,11 +9816,11 @@
       </c>
       <c r="C195" s="32"/>
       <c r="D195" s="29">
-        <f t="shared" si="4"/>
+        <f>C195+(C195*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E195" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">MOUSE  PILOT SERIALE </v>
       </c>
     </row>
@@ -10556,11 +9835,11 @@
         <v>37000</v>
       </c>
       <c r="D196" s="29">
-        <f t="shared" si="4"/>
-        <v>7400</v>
+        <f>C196+(C196*IVATOT)</f>
+        <v>44400</v>
       </c>
       <c r="E196" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>MOUSE  PILOT P/S2 37000</v>
       </c>
     </row>
@@ -10575,11 +9854,11 @@
         <v>37000</v>
       </c>
       <c r="D197" s="29">
-        <f t="shared" ref="D197:D260" si="6">C197*IVATOT</f>
-        <v>7400</v>
+        <f>C197+(C197*IVATOT)</f>
+        <v>44400</v>
       </c>
       <c r="E197" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>MOUSE SERIALE 3 TASTI 37000</v>
       </c>
     </row>
@@ -10594,11 +9873,11 @@
         <v>11000</v>
       </c>
       <c r="D198" s="29">
-        <f t="shared" si="6"/>
-        <v>2200</v>
+        <f>C198+(C198*IVATOT)</f>
+        <v>13200</v>
       </c>
       <c r="E198" s="10" t="str">
-        <f t="shared" ref="E198:E261" si="7">_xlfn.CONCAT(A199," ",C198)</f>
+        <f t="shared" ref="E198:E261" si="3">_xlfn.CONCAT(A199," ",C198)</f>
         <v>MOUSE TRACKBALL  11000</v>
       </c>
     </row>
@@ -10613,11 +9892,11 @@
         <v>46000</v>
       </c>
       <c r="D199" s="29">
-        <f t="shared" si="6"/>
-        <v>9200</v>
+        <f>C199+(C199*IVATOT)</f>
+        <v>55200</v>
       </c>
       <c r="E199" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>MOUSE "RAINBOW" SERIALE 46000</v>
       </c>
     </row>
@@ -10632,11 +9911,11 @@
         <v>19000</v>
       </c>
       <c r="D200" s="29">
-        <f t="shared" si="6"/>
-        <v>3800</v>
+        <f>C200+(C200*IVATOT)</f>
+        <v>22800</v>
       </c>
       <c r="E200" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>MOUSE  ECHO PS/2 19000</v>
       </c>
     </row>
@@ -10651,11 +9930,11 @@
         <v>13000</v>
       </c>
       <c r="D201" s="29">
-        <f t="shared" si="6"/>
-        <v>2600</v>
+        <f>C201+(C201*IVATOT)</f>
+        <v>15600</v>
       </c>
       <c r="E201" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>VENUS MOUSE SERIALE 13000</v>
       </c>
     </row>
@@ -10670,11 +9949,11 @@
         <v>26000</v>
       </c>
       <c r="D202" s="29">
-        <f t="shared" si="6"/>
-        <v>5200</v>
+        <f>C202+(C202*IVATOT)</f>
+        <v>31200</v>
       </c>
       <c r="E202" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>VENUS MOUSE PS/2 26000</v>
       </c>
     </row>
@@ -10689,11 +9968,11 @@
         <v>26000</v>
       </c>
       <c r="D203" s="29">
-        <f t="shared" si="6"/>
-        <v>5200</v>
+        <f>C203+(C203*IVATOT)</f>
+        <v>31200</v>
       </c>
       <c r="E203" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>JOYSTICK DIGITALE 26000</v>
       </c>
     </row>
@@ -10708,11 +9987,11 @@
         <v>20000</v>
       </c>
       <c r="D204" s="29">
-        <f t="shared" si="6"/>
-        <v>4000</v>
+        <f>C204+(C204*IVATOT)</f>
+        <v>24000</v>
       </c>
       <c r="E204" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>JOYSTICK ULTRASTRIKER 20000</v>
       </c>
     </row>
@@ -10727,11 +10006,11 @@
         <v>49000</v>
       </c>
       <c r="D205" s="29">
-        <f t="shared" si="6"/>
-        <v>9800</v>
+        <f>C205+(C205*IVATOT)</f>
+        <v>58800</v>
       </c>
       <c r="E205" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>NAVIGATOR MOUSE 49000</v>
       </c>
     </row>
@@ -10746,11 +10025,11 @@
         <v>33000</v>
       </c>
       <c r="D206" s="29">
-        <f t="shared" si="6"/>
-        <v>6600</v>
+        <f>C206+(C206*IVATOT)</f>
+        <v>39600</v>
       </c>
       <c r="E206" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>JOYSTICK EXCALIBUR 33000</v>
       </c>
     </row>
@@ -10765,11 +10044,11 @@
         <v>68000</v>
       </c>
       <c r="D207" s="29">
-        <f t="shared" si="6"/>
-        <v>13600</v>
+        <f>C207+(C207*IVATOT)</f>
+        <v>81600</v>
       </c>
       <c r="E207" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>GAMEPAD CONQUEROR 68000</v>
       </c>
     </row>
@@ -10784,11 +10063,11 @@
         <v>33000</v>
       </c>
       <c r="D208" s="29">
-        <f t="shared" si="6"/>
-        <v>6600</v>
+        <f>C208+(C208*IVATOT)</f>
+        <v>39600</v>
       </c>
       <c r="E208" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>COLOR HAND SCANNER 33000</v>
       </c>
     </row>
@@ -10803,11 +10082,11 @@
         <v>147000</v>
       </c>
       <c r="D209" s="29">
-        <f t="shared" si="6"/>
-        <v>29400</v>
+        <f>C209+(C209*IVATOT)</f>
+        <v>176400</v>
       </c>
       <c r="E209" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>SCANNER COLORADO 4800 SW + OCR  147000</v>
       </c>
     </row>
@@ -10822,11 +10101,11 @@
         <v>151000</v>
       </c>
       <c r="D210" s="29">
-        <f t="shared" si="6"/>
-        <v>30200</v>
+        <f>C210+(C210*IVATOT)</f>
+        <v>181200</v>
       </c>
       <c r="E210" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>SCANNER COLORADO D600 SW + OCR  151000</v>
       </c>
     </row>
@@ -10841,11 +10120,11 @@
         <v>197000</v>
       </c>
       <c r="D211" s="29">
-        <f t="shared" si="6"/>
-        <v>39400</v>
+        <f>C211+(C211*IVATOT)</f>
+        <v>236400</v>
       </c>
       <c r="E211" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>SCANNER  DIRECT 9600 SW + OCR 197000</v>
       </c>
     </row>
@@ -10860,11 +10139,11 @@
         <v>310000</v>
       </c>
       <c r="D212" s="29">
-        <f t="shared" si="6"/>
-        <v>62000</v>
+        <f>C212+(C212*IVATOT)</f>
+        <v>372000</v>
       </c>
       <c r="E212" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>SCANNER  JEWEL 4800 SCSI 310000</v>
       </c>
     </row>
@@ -10879,11 +10158,11 @@
         <v>271000</v>
       </c>
       <c r="D213" s="29">
-        <f t="shared" si="6"/>
-        <v>54200</v>
+        <f>C213+(C213*IVATOT)</f>
+        <v>325200</v>
       </c>
       <c r="E213" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>SCANNER PROFI  9600 SCSI 271000</v>
       </c>
     </row>
@@ -10898,11 +10177,11 @@
         <v>458000</v>
       </c>
       <c r="D214" s="29">
-        <f t="shared" si="6"/>
-        <v>91600</v>
+        <f>C214+(C214*IVATOT)</f>
+        <v>549600</v>
       </c>
       <c r="E214" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>SCANNER PHODOX U. S. 300 458000</v>
       </c>
     </row>
@@ -10917,11 +10196,11 @@
         <v>412000</v>
       </c>
       <c r="D215" s="29">
-        <f t="shared" si="6"/>
-        <v>82400</v>
+        <f>C215+(C215*IVATOT)</f>
+        <v>494400</v>
       </c>
       <c r="E215" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>FILMSCAN-200PC 412000</v>
       </c>
     </row>
@@ -10936,11 +10215,11 @@
         <v>807000</v>
       </c>
       <c r="D216" s="29">
-        <f t="shared" si="6"/>
-        <v>161400</v>
+        <f>C216+(C216*IVATOT)</f>
+        <v>968400</v>
       </c>
       <c r="E216" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>TAPPETINO PER MOUSE 807000</v>
       </c>
     </row>
@@ -10952,11 +10231,11 @@
         <v>4000</v>
       </c>
       <c r="D217" s="29">
-        <f t="shared" si="6"/>
-        <v>800</v>
+        <f>C217+(C217*IVATOT)</f>
+        <v>4800</v>
       </c>
       <c r="E217" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>ALIMENTATORE 200 W CE 4000</v>
       </c>
     </row>
@@ -10968,11 +10247,11 @@
         <v>81000</v>
       </c>
       <c r="D218" s="29">
-        <f t="shared" si="6"/>
-        <v>16200</v>
+        <f>C218+(C218*IVATOT)</f>
+        <v>97200</v>
       </c>
       <c r="E218" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>ALIMENTATORE 250 W CE ATX 81000</v>
       </c>
     </row>
@@ -10984,11 +10263,11 @@
         <v>125000</v>
       </c>
       <c r="D219" s="29">
-        <f t="shared" si="6"/>
-        <v>25000</v>
+        <f>C219+(C219*IVATOT)</f>
+        <v>150000</v>
       </c>
       <c r="E219" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>ALIMENTATORE 230 W CE ATX 125000</v>
       </c>
     </row>
@@ -11000,11 +10279,11 @@
         <v>98000</v>
       </c>
       <c r="D220" s="29">
-        <f t="shared" si="6"/>
-        <v>19600</v>
+        <f>C220+(C220*IVATOT)</f>
+        <v>117600</v>
       </c>
       <c r="E220" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>ALIMENTATORE 300 W CE ATX 98000</v>
       </c>
     </row>
@@ -11016,11 +10295,11 @@
         <v>140000</v>
       </c>
       <c r="D221" s="29">
-        <f t="shared" si="6"/>
-        <v>28000</v>
+        <f>C221+(C221*IVATOT)</f>
+        <v>168000</v>
       </c>
       <c r="E221" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>CAVO PARALLELO STAMP. MT 1,8 140000</v>
       </c>
     </row>
@@ -11035,11 +10314,11 @@
         <v>5000</v>
       </c>
       <c r="D222" s="29">
-        <f t="shared" si="6"/>
-        <v>1000</v>
+        <f>C222+(C222*IVATOT)</f>
+        <v>6000</v>
       </c>
       <c r="E222" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>CAVO PARALLELO STAMP. MT 1,8 5000</v>
       </c>
     </row>
@@ -11054,11 +10333,11 @@
         <v>6000</v>
       </c>
       <c r="D223" s="29">
-        <f t="shared" si="6"/>
-        <v>1200</v>
+        <f>C223+(C223*IVATOT)</f>
+        <v>7200</v>
       </c>
       <c r="E223" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>CAVO PARALLELO STAMP. MT 3 6000</v>
       </c>
     </row>
@@ -11070,11 +10349,11 @@
         <v>9000</v>
       </c>
       <c r="D224" s="29">
-        <f t="shared" si="6"/>
-        <v>1800</v>
+        <f>C224+(C224*IVATOT)</f>
+        <v>10800</v>
       </c>
       <c r="E224" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>CONNETTORE MOUSE PS/2 9000</v>
       </c>
     </row>
@@ -11089,11 +10368,11 @@
         <v>8000</v>
       </c>
       <c r="D225" s="29">
-        <f t="shared" si="6"/>
-        <v>1600</v>
+        <f>C225+(C225*IVATOT)</f>
+        <v>9600</v>
       </c>
       <c r="E225" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>CONNETTORE TASTIERA PS/2 8000</v>
       </c>
     </row>
@@ -11105,11 +10384,11 @@
         <v>11000</v>
       </c>
       <c r="D226" s="29">
-        <f t="shared" si="6"/>
-        <v>2200</v>
+        <f>C226+(C226*IVATOT)</f>
+        <v>13200</v>
       </c>
       <c r="E226" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>CONNETTORE USB/MIR 11000</v>
       </c>
     </row>
@@ -11124,11 +10403,11 @@
         <v>21000</v>
       </c>
       <c r="D227" s="29">
-        <f t="shared" si="6"/>
-        <v>4200</v>
+        <f>C227+(C227*IVATOT)</f>
+        <v>25200</v>
       </c>
       <c r="E227" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>DATA-SWITCH 2/1 MANUALE 21000</v>
       </c>
     </row>
@@ -11143,11 +10422,11 @@
         <v>14000</v>
       </c>
       <c r="D228" s="29">
-        <f t="shared" si="6"/>
-        <v>2800</v>
+        <f>C228+(C228*IVATOT)</f>
+        <v>16800</v>
       </c>
       <c r="E228" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>DATA-SWITCH 2/2 MANUALE 14000</v>
       </c>
     </row>
@@ -11162,11 +10441,11 @@
         <v>23000</v>
       </c>
       <c r="D229" s="29">
-        <f t="shared" si="6"/>
-        <v>4600</v>
+        <f>C229+(C229*IVATOT)</f>
+        <v>27600</v>
       </c>
       <c r="E229" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>DATA-SWITCH 2/1 BIDIREZ. 23000</v>
       </c>
     </row>
@@ -11181,11 +10460,11 @@
         <v>51000</v>
       </c>
       <c r="D230" s="29">
-        <f t="shared" si="6"/>
-        <v>10200</v>
+        <f>C230+(C230*IVATOT)</f>
+        <v>61200</v>
       </c>
       <c r="E230" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>SOFTWARE 51000</v>
       </c>
     </row>
@@ -11195,11 +10474,11 @@
       </c>
       <c r="C231" s="32"/>
       <c r="D231" s="29">
-        <f t="shared" si="6"/>
+        <f>C231+(C231*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E231" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">COMBO DOS6.22+WIN3.11+DSK.MAN. </v>
       </c>
     </row>
@@ -11214,11 +10493,11 @@
         <v>198000</v>
       </c>
       <c r="D232" s="29">
-        <f t="shared" si="6"/>
-        <v>39600</v>
+        <f>C232+(C232*IVATOT)</f>
+        <v>237600</v>
       </c>
       <c r="E232" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>WINDOWS 95, MANUALI + CD 198000</v>
       </c>
     </row>
@@ -11233,11 +10512,11 @@
         <v>167000</v>
       </c>
       <c r="D233" s="29">
-        <f t="shared" si="6"/>
-        <v>33400</v>
+        <f>C233+(C233*IVATOT)</f>
+        <v>200400</v>
       </c>
       <c r="E233" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>LICENZA STUDENTE SISTEMI  167000</v>
       </c>
     </row>
@@ -11252,11 +10531,11 @@
         <v>95000</v>
       </c>
       <c r="D234" s="29">
-        <f t="shared" si="6"/>
-        <v>19000</v>
+        <f>C234+(C234*IVATOT)</f>
+        <v>114000</v>
       </c>
       <c r="E234" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>LICENZA STUDENTE APPLICAZIONI 95000</v>
       </c>
     </row>
@@ -11271,11 +10550,11 @@
         <v>141000</v>
       </c>
       <c r="D235" s="29">
-        <f t="shared" si="6"/>
-        <v>28200</v>
+        <f>C235+(C235*IVATOT)</f>
+        <v>169200</v>
       </c>
       <c r="E235" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>WIN NT WORKSTATION 4.0 141000</v>
       </c>
     </row>
@@ -11290,11 +10569,11 @@
         <v>351000</v>
       </c>
       <c r="D236" s="29">
-        <f t="shared" si="6"/>
-        <v>70200</v>
+        <f>C236+(C236*IVATOT)</f>
+        <v>421200</v>
       </c>
       <c r="E236" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>OFFICE SMALL BUSINESS 351000</v>
       </c>
     </row>
@@ -11309,11 +10588,11 @@
         <v>414000</v>
       </c>
       <c r="D237" s="29">
-        <f t="shared" si="6"/>
-        <v>82800</v>
+        <f>C237+(C237*IVATOT)</f>
+        <v>496800</v>
       </c>
       <c r="E237" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>WORKS 4.5 ITA, MANUALI + CD 414000</v>
       </c>
     </row>
@@ -11328,11 +10607,11 @@
         <v>61000</v>
       </c>
       <c r="D238" s="29">
-        <f t="shared" si="6"/>
-        <v>12200</v>
+        <f>C238+(C238*IVATOT)</f>
+        <v>73200</v>
       </c>
       <c r="E238" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>FIVE PACK WIN 95 61000</v>
       </c>
     </row>
@@ -11347,11 +10626,11 @@
         <v>893000</v>
       </c>
       <c r="D239" s="29">
-        <f t="shared" si="6"/>
-        <v>178600</v>
+        <f>C239+(C239*IVATOT)</f>
+        <v>1071600</v>
       </c>
       <c r="E239" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>FIVE PACK COMBO WIN3.11-DOS 893000</v>
       </c>
     </row>
@@ -11366,11 +10645,11 @@
         <v>985000</v>
       </c>
       <c r="D240" s="29">
-        <f t="shared" si="6"/>
-        <v>197000</v>
+        <f>C240+(C240*IVATOT)</f>
+        <v>1182000</v>
       </c>
       <c r="E240" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>FIVE PACK WORKS 4.5 985000</v>
       </c>
     </row>
@@ -11385,11 +10664,11 @@
         <v>296000</v>
       </c>
       <c r="D241" s="29">
-        <f t="shared" si="6"/>
-        <v>59200</v>
+        <f>C241+(C241*IVATOT)</f>
+        <v>355200</v>
       </c>
       <c r="E241" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3-PACK  HOME ESSENTIALS 98 296000</v>
       </c>
     </row>
@@ -11404,11 +10683,11 @@
         <v>685000</v>
       </c>
       <c r="D242" s="29">
-        <f t="shared" si="6"/>
-        <v>137000</v>
+        <f>C242+(C242*IVATOT)</f>
+        <v>822000</v>
       </c>
       <c r="E242" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3-PACK WIN NT WORKSTATION 4.0 685000</v>
       </c>
     </row>
@@ -11423,11 +10702,11 @@
         <v>1138000</v>
       </c>
       <c r="D243" s="29">
-        <f t="shared" si="6"/>
-        <v>227600</v>
+        <f>C243+(C243*IVATOT)</f>
+        <v>1365600</v>
       </c>
       <c r="E243" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3-PACK OFFICE SMALL BUSINESS 1138000</v>
       </c>
     </row>
@@ -11442,11 +10721,11 @@
         <v>1334000</v>
       </c>
       <c r="D244" s="29">
-        <f t="shared" si="6"/>
-        <v>266800</v>
+        <f>C244+(C244*IVATOT)</f>
+        <v>1600800</v>
       </c>
       <c r="E244" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>CD VIDEOGUIDA  WIN'95 1334000</v>
       </c>
     </row>
@@ -11461,11 +10740,11 @@
         <v>30000</v>
       </c>
       <c r="D245" s="29">
-        <f t="shared" si="6"/>
-        <v>6000</v>
+        <f>C245+(C245*IVATOT)</f>
+        <v>36000</v>
       </c>
       <c r="E245" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>CD VIDEGUIDA INTERNET 30000</v>
       </c>
     </row>
@@ -11480,11 +10759,11 @@
         <v>30000</v>
       </c>
       <c r="D246" s="29">
-        <f t="shared" si="6"/>
-        <v>6000</v>
+        <f>C246+(C246*IVATOT)</f>
+        <v>36000</v>
       </c>
       <c r="E246" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>WINDOWS 95  30000</v>
       </c>
     </row>
@@ -11499,11 +10778,11 @@
         <v>406000</v>
       </c>
       <c r="D247" s="29">
-        <f t="shared" si="6"/>
-        <v>81200</v>
+        <f>C247+(C247*IVATOT)</f>
+        <v>487200</v>
       </c>
       <c r="E247" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>WINDOWS 95 Lic. Agg. 406000</v>
       </c>
     </row>
@@ -11518,11 +10797,11 @@
         <v>197000</v>
       </c>
       <c r="D248" s="29">
-        <f t="shared" si="6"/>
-        <v>39400</v>
+        <f>C248+(C248*IVATOT)</f>
+        <v>236400</v>
       </c>
       <c r="E248" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>EXCEL 7.0 197000</v>
       </c>
     </row>
@@ -11537,11 +10816,11 @@
         <v>645000</v>
       </c>
       <c r="D249" s="29">
-        <f t="shared" si="6"/>
-        <v>129000</v>
+        <f>C249+(C249*IVATOT)</f>
+        <v>774000</v>
       </c>
       <c r="E249" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>EXCEL 97 645000</v>
       </c>
     </row>
@@ -11556,11 +10835,11 @@
         <v>645000</v>
       </c>
       <c r="D250" s="29">
-        <f t="shared" si="6"/>
-        <v>129000</v>
+        <f>C250+(C250*IVATOT)</f>
+        <v>774000</v>
       </c>
       <c r="E250" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>EXCEL 97 Agg. 645000</v>
       </c>
     </row>
@@ -11575,11 +10854,11 @@
         <v>259000</v>
       </c>
       <c r="D251" s="29">
-        <f t="shared" si="6"/>
-        <v>51800</v>
+        <f>C251+(C251*IVATOT)</f>
+        <v>310800</v>
       </c>
       <c r="E251" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>WORD 97 259000</v>
       </c>
     </row>
@@ -11594,11 +10873,11 @@
         <v>646000</v>
       </c>
       <c r="D252" s="29">
-        <f t="shared" si="6"/>
-        <v>129200</v>
+        <f>C252+(C252*IVATOT)</f>
+        <v>775200</v>
       </c>
       <c r="E252" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>WORD 97 Agg. 646000</v>
       </c>
     </row>
@@ -11613,11 +10892,11 @@
         <v>259000</v>
       </c>
       <c r="D253" s="29">
-        <f t="shared" si="6"/>
-        <v>51800</v>
+        <f>C253+(C253*IVATOT)</f>
+        <v>310800</v>
       </c>
       <c r="E253" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>ACCESS 97 259000</v>
       </c>
     </row>
@@ -11632,11 +10911,11 @@
         <v>645000</v>
       </c>
       <c r="D254" s="29">
-        <f t="shared" si="6"/>
-        <v>129000</v>
+        <f>C254+(C254*IVATOT)</f>
+        <v>774000</v>
       </c>
       <c r="E254" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>OFFICE 97 SMALL BUSINESS 645000</v>
       </c>
     </row>
@@ -11651,11 +10930,11 @@
         <v>879000</v>
       </c>
       <c r="D255" s="29">
-        <f t="shared" si="6"/>
-        <v>175800</v>
+        <f>C255+(C255*IVATOT)</f>
+        <v>1054800</v>
       </c>
       <c r="E255" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>HOME ESSENTIALS 98 879000</v>
       </c>
     </row>
@@ -11670,11 +10949,11 @@
         <v>259000</v>
       </c>
       <c r="D256" s="29">
-        <f t="shared" si="6"/>
-        <v>51800</v>
+        <f>C256+(C256*IVATOT)</f>
+        <v>310800</v>
       </c>
       <c r="E256" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>FRONTPAGE 98 259000</v>
       </c>
     </row>
@@ -11689,11 +10968,11 @@
         <v>274000</v>
       </c>
       <c r="D257" s="29">
-        <f t="shared" si="6"/>
-        <v>54800</v>
+        <f>C257+(C257*IVATOT)</f>
+        <v>328800</v>
       </c>
       <c r="E257" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>OFFICE '97 274000</v>
       </c>
     </row>
@@ -11708,11 +10987,11 @@
         <v>975000</v>
       </c>
       <c r="D258" s="29">
-        <f t="shared" si="6"/>
-        <v>195000</v>
+        <f>C258+(C258*IVATOT)</f>
+        <v>1170000</v>
       </c>
       <c r="E258" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>OFFICE '97 Agg. 975000</v>
       </c>
     </row>
@@ -11727,11 +11006,11 @@
         <v>480000</v>
       </c>
       <c r="D259" s="29">
-        <f t="shared" si="6"/>
-        <v>96000</v>
+        <f>C259+(C259*IVATOT)</f>
+        <v>576000</v>
       </c>
       <c r="E259" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>OFFICE '97 Professional 480000</v>
       </c>
     </row>
@@ -11746,11 +11025,11 @@
         <v>1187000</v>
       </c>
       <c r="D260" s="29">
-        <f t="shared" si="6"/>
-        <v>237400</v>
+        <f>C260+(C260*IVATOT)</f>
+        <v>1424400</v>
       </c>
       <c r="E260" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>OFFICE '97 Professional Agg. 1187000</v>
       </c>
     </row>
@@ -11765,11 +11044,11 @@
         <v>832000</v>
       </c>
       <c r="D261" s="29">
-        <f t="shared" ref="D261:D324" si="8">C261*IVATOT</f>
-        <v>166400</v>
+        <f>C261+(C261*IVATOT)</f>
+        <v>998400</v>
       </c>
       <c r="E261" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>VISUAL BASIC 4.0 STD 832000</v>
       </c>
     </row>
@@ -11784,11 +11063,11 @@
         <v>227000</v>
       </c>
       <c r="D262" s="29">
-        <f t="shared" si="8"/>
-        <v>45400</v>
+        <f>C262+(C262*IVATOT)</f>
+        <v>272400</v>
       </c>
       <c r="E262" s="10" t="str">
-        <f t="shared" ref="E262:E325" si="9">_xlfn.CONCAT(A263," ",C262)</f>
+        <f t="shared" ref="E262:E325" si="4">_xlfn.CONCAT(A263," ",C262)</f>
         <v>VISUAL BASIC 4.0 Agg. 227000</v>
       </c>
     </row>
@@ -11803,11 +11082,11 @@
         <v>98000</v>
       </c>
       <c r="D263" s="29">
-        <f t="shared" si="8"/>
-        <v>19600</v>
+        <f>C263+(C263*IVATOT)</f>
+        <v>117600</v>
       </c>
       <c r="E263" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>VISUAL BASIC 4.0 PROFESSIONAL 98000</v>
       </c>
     </row>
@@ -11822,11 +11101,11 @@
         <v>1190000</v>
       </c>
       <c r="D264" s="29">
-        <f t="shared" si="8"/>
-        <v>238000</v>
+        <f>C264+(C264*IVATOT)</f>
+        <v>1428000</v>
       </c>
       <c r="E264" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>VISUAL BASIC 4.0 PROF. Agg. 1190000</v>
       </c>
     </row>
@@ -11841,11 +11120,11 @@
         <v>300000</v>
       </c>
       <c r="D265" s="29">
-        <f t="shared" si="8"/>
-        <v>60000</v>
+        <f>C265+(C265*IVATOT)</f>
+        <v>360000</v>
       </c>
       <c r="E265" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>VISUAL BASIC 4.0 ENTERPRICE 300000</v>
       </c>
     </row>
@@ -11860,11 +11139,11 @@
         <v>2407000</v>
       </c>
       <c r="D266" s="29">
-        <f t="shared" si="8"/>
-        <v>481400</v>
+        <f>C266+(C266*IVATOT)</f>
+        <v>2888400</v>
       </c>
       <c r="E266" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>VISUAL BASIC 4.0 ENTERPRICE Agg. 2407000</v>
       </c>
     </row>
@@ -11879,11 +11158,11 @@
         <v>1021000</v>
       </c>
       <c r="D267" s="29">
-        <f t="shared" si="8"/>
-        <v>204200</v>
+        <f>C267+(C267*IVATOT)</f>
+        <v>1225200</v>
       </c>
       <c r="E267" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>POWERPOINT 97 1021000</v>
       </c>
     </row>
@@ -11898,11 +11177,11 @@
         <v>646000</v>
       </c>
       <c r="D268" s="29">
-        <f t="shared" si="8"/>
-        <v>129200</v>
+        <f>C268+(C268*IVATOT)</f>
+        <v>775200</v>
       </c>
       <c r="E268" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>POWERPOINT 97 Agg. 646000</v>
       </c>
     </row>
@@ -11917,11 +11196,11 @@
         <v>259000</v>
       </c>
       <c r="D269" s="29">
-        <f t="shared" si="8"/>
-        <v>51800</v>
+        <f>C269+(C269*IVATOT)</f>
+        <v>310800</v>
       </c>
       <c r="E269" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>PUBLISHER 3.0 259000</v>
       </c>
     </row>
@@ -11936,11 +11215,11 @@
         <v>193000</v>
       </c>
       <c r="D270" s="29">
-        <f t="shared" si="8"/>
-        <v>38600</v>
+        <f>C270+(C270*IVATOT)</f>
+        <v>231600</v>
       </c>
       <c r="E270" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>PUBLISHER 3.0 Agg. 193000</v>
       </c>
     </row>
@@ -11955,11 +11234,11 @@
         <v>96000</v>
       </c>
       <c r="D271" s="29">
-        <f t="shared" si="8"/>
-        <v>19200</v>
+        <f>C271+(C271*IVATOT)</f>
+        <v>115200</v>
       </c>
       <c r="E271" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>WINDOWS NT 4.0 WORKSTATION 96000</v>
       </c>
     </row>
@@ -11974,11 +11253,11 @@
         <v>594000</v>
       </c>
       <c r="D272" s="29">
-        <f t="shared" si="8"/>
-        <v>118800</v>
+        <f>C272+(C272*IVATOT)</f>
+        <v>712800</v>
       </c>
       <c r="E272" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>WINDOWS NT 4.0 Agg. WORKSTATION 594000</v>
       </c>
     </row>
@@ -11993,11 +11272,11 @@
         <v>282000</v>
       </c>
       <c r="D273" s="29">
-        <f t="shared" si="8"/>
-        <v>56400</v>
+        <f>C273+(C273*IVATOT)</f>
+        <v>338400</v>
       </c>
       <c r="E273" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>WINDOWS NT 4.0 SERVER 5 client 282000</v>
       </c>
     </row>
@@ -12012,11 +11291,11 @@
         <v>1814000</v>
       </c>
       <c r="D274" s="29">
-        <f t="shared" si="8"/>
-        <v>362800</v>
+        <f>C274+(C274*IVATOT)</f>
+        <v>2176800</v>
       </c>
       <c r="E274" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>WINDOWS 3.1 1814000</v>
       </c>
     </row>
@@ -12031,11 +11310,11 @@
         <v>193000</v>
       </c>
       <c r="D275" s="29">
-        <f t="shared" si="8"/>
-        <v>38600</v>
+        <f>C275+(C275*IVATOT)</f>
+        <v>231600</v>
       </c>
       <c r="E275" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>POWERPOINT 4.0 193000</v>
       </c>
     </row>
@@ -12050,11 +11329,11 @@
         <v>654000</v>
       </c>
       <c r="D276" s="29">
-        <f t="shared" si="8"/>
-        <v>130800</v>
+        <f>C276+(C276*IVATOT)</f>
+        <v>784800</v>
       </c>
       <c r="E276" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>EXCEL 5.0 654000</v>
       </c>
     </row>
@@ -12069,11 +11348,11 @@
         <v>729000</v>
       </c>
       <c r="D277" s="29">
-        <f t="shared" si="8"/>
-        <v>145800</v>
+        <f>C277+(C277*IVATOT)</f>
+        <v>874800</v>
       </c>
       <c r="E277" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>ACCESS 2.0 729000</v>
       </c>
     </row>
@@ -12088,11 +11367,11 @@
         <v>632000</v>
       </c>
       <c r="D278" s="29">
-        <f t="shared" si="8"/>
-        <v>126400</v>
+        <f>C278+(C278*IVATOT)</f>
+        <v>758400</v>
       </c>
       <c r="E278" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>ACCESS 2.0 Competitivo 632000</v>
       </c>
     </row>
@@ -12107,11 +11386,11 @@
         <v>240000</v>
       </c>
       <c r="D279" s="29">
-        <f t="shared" si="8"/>
-        <v>48000</v>
+        <f>C279+(C279*IVATOT)</f>
+        <v>288000</v>
       </c>
       <c r="E279" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>OFFICE 4.2 240000</v>
       </c>
     </row>
@@ -12126,11 +11405,11 @@
         <v>955000</v>
       </c>
       <c r="D280" s="29">
-        <f t="shared" si="8"/>
-        <v>191000</v>
+        <f>C280+(C280*IVATOT)</f>
+        <v>1146000</v>
       </c>
       <c r="E280" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>OFFICE 4.3 PROFESSIONAL 955000</v>
       </c>
     </row>
@@ -12145,11 +11424,11 @@
         <v>1126000</v>
       </c>
       <c r="D281" s="29">
-        <f t="shared" si="8"/>
-        <v>225200</v>
+        <f>C281+(C281*IVATOT)</f>
+        <v>1351200</v>
       </c>
       <c r="E281" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMPANTI 1126000</v>
       </c>
     </row>
@@ -12159,11 +11438,11 @@
       </c>
       <c r="C282" s="32"/>
       <c r="D282" s="29">
-        <f t="shared" si="8"/>
+        <f>C282+(C282*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E282" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">STAMP.EPSON LX300 </v>
       </c>
     </row>
@@ -12178,11 +11457,11 @@
         <v>297000</v>
       </c>
       <c r="D283" s="29">
-        <f t="shared" si="8"/>
-        <v>59400</v>
+        <f>C283+(C283*IVATOT)</f>
+        <v>356400</v>
       </c>
       <c r="E283" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON LX1050+ 297000</v>
       </c>
     </row>
@@ -12197,11 +11476,11 @@
         <v>646000</v>
       </c>
       <c r="D284" s="29">
-        <f t="shared" si="8"/>
-        <v>129200</v>
+        <f>C284+(C284*IVATOT)</f>
+        <v>775200</v>
       </c>
       <c r="E284" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON FX870 646000</v>
       </c>
     </row>
@@ -12216,11 +11495,11 @@
         <v>714000</v>
       </c>
       <c r="D285" s="29">
-        <f t="shared" si="8"/>
-        <v>142800</v>
+        <f>C285+(C285*IVATOT)</f>
+        <v>856800</v>
       </c>
       <c r="E285" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON FX1170 714000</v>
       </c>
     </row>
@@ -12235,11 +11514,11 @@
         <v>807000</v>
       </c>
       <c r="D286" s="29">
-        <f t="shared" si="8"/>
-        <v>161400</v>
+        <f>C286+(C286*IVATOT)</f>
+        <v>968400</v>
       </c>
       <c r="E286" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON LQ570+ 807000</v>
       </c>
     </row>
@@ -12254,11 +11533,11 @@
         <v>591000</v>
       </c>
       <c r="D287" s="29">
-        <f t="shared" si="8"/>
-        <v>118200</v>
+        <f>C287+(C287*IVATOT)</f>
+        <v>709200</v>
       </c>
       <c r="E287" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON LQ2070+ 591000</v>
       </c>
     </row>
@@ -12273,11 +11552,11 @@
         <v>918000</v>
       </c>
       <c r="D288" s="29">
-        <f t="shared" si="8"/>
-        <v>183600</v>
+        <f>C288+(C288*IVATOT)</f>
+        <v>1101600</v>
       </c>
       <c r="E288" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON LQ 2170 918000</v>
       </c>
     </row>
@@ -12292,11 +11571,11 @@
         <v>1265000</v>
       </c>
       <c r="D289" s="29">
-        <f t="shared" si="8"/>
-        <v>253000</v>
+        <f>C289+(C289*IVATOT)</f>
+        <v>1518000</v>
       </c>
       <c r="E289" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON STYLUS 300COLOR 1265000</v>
       </c>
     </row>
@@ -12311,11 +11590,11 @@
         <v>256000</v>
       </c>
       <c r="D290" s="29">
-        <f t="shared" si="8"/>
-        <v>51200</v>
+        <f>C290+(C290*IVATOT)</f>
+        <v>307200</v>
       </c>
       <c r="E290" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON STYLUS 400COLOR 256000</v>
       </c>
     </row>
@@ -12330,11 +11609,11 @@
         <v>371000</v>
       </c>
       <c r="D291" s="29">
-        <f t="shared" si="8"/>
-        <v>74200</v>
+        <f>C291+(C291*IVATOT)</f>
+        <v>445200</v>
       </c>
       <c r="E291" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON STYLUS 600COLOR 371000</v>
       </c>
     </row>
@@ -12349,11 +11628,11 @@
         <v>457000</v>
       </c>
       <c r="D292" s="29">
-        <f t="shared" si="8"/>
-        <v>91400</v>
+        <f>C292+(C292*IVATOT)</f>
+        <v>548400</v>
       </c>
       <c r="E292" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON STYLUS 800COLOR 457000</v>
       </c>
     </row>
@@ -12368,11 +11647,11 @@
         <v>642000</v>
       </c>
       <c r="D293" s="29">
-        <f t="shared" si="8"/>
-        <v>128400</v>
+        <f>C293+(C293*IVATOT)</f>
+        <v>770400</v>
       </c>
       <c r="E293" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON STYLUS 1520COLOR 642000</v>
       </c>
     </row>
@@ -12387,11 +11666,11 @@
         <v>1571000</v>
       </c>
       <c r="D294" s="29">
-        <f t="shared" si="8"/>
-        <v>314200</v>
+        <f>C294+(C294*IVATOT)</f>
+        <v>1885200</v>
       </c>
       <c r="E294" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON STYLUS 1000 1571000</v>
       </c>
     </row>
@@ -12406,11 +11685,11 @@
         <v>756000</v>
       </c>
       <c r="D295" s="29">
-        <f t="shared" si="8"/>
-        <v>151200</v>
+        <f>C295+(C295*IVATOT)</f>
+        <v>907200</v>
       </c>
       <c r="E295" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON STYLUS PRO XL+ 756000</v>
       </c>
     </row>
@@ -12425,11 +11704,11 @@
         <v>1571000</v>
       </c>
       <c r="D296" s="29">
-        <f t="shared" si="8"/>
-        <v>314200</v>
+        <f>C296+(C296*IVATOT)</f>
+        <v>1885200</v>
       </c>
       <c r="E296" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON STYLUS  3000 1571000</v>
       </c>
     </row>
@@ -12444,11 +11723,11 @@
         <v>2716000</v>
       </c>
       <c r="D297" s="29">
-        <f t="shared" si="8"/>
-        <v>543200</v>
+        <f>C297+(C297*IVATOT)</f>
+        <v>3259200</v>
       </c>
       <c r="E297" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP.EPSON STYLUS PHOTO 2716000</v>
       </c>
     </row>
@@ -12463,11 +11742,11 @@
         <v>640000</v>
       </c>
       <c r="D298" s="29">
-        <f t="shared" si="8"/>
-        <v>128000</v>
+        <f>C298+(C298*IVATOT)</f>
+        <v>768000</v>
       </c>
       <c r="E298" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. CANON BJ-250 COLOR 640000</v>
       </c>
     </row>
@@ -12482,11 +11761,11 @@
         <v>255000</v>
       </c>
       <c r="D299" s="29">
-        <f t="shared" si="8"/>
-        <v>51000</v>
+        <f>C299+(C299*IVATOT)</f>
+        <v>306000</v>
       </c>
       <c r="E299" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. CANON BJC-80 COLOR 255000</v>
       </c>
     </row>
@@ -12501,11 +11780,11 @@
         <v>413000</v>
       </c>
       <c r="D300" s="29">
-        <f t="shared" si="8"/>
-        <v>82600</v>
+        <f>C300+(C300*IVATOT)</f>
+        <v>495600</v>
       </c>
       <c r="E300" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. CANON BJC-4300 COLOR 413000</v>
       </c>
     </row>
@@ -12520,11 +11799,11 @@
         <v>361000</v>
       </c>
       <c r="D301" s="29">
-        <f t="shared" si="8"/>
-        <v>72200</v>
+        <f>C301+(C301*IVATOT)</f>
+        <v>433200</v>
       </c>
       <c r="E301" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. CANON BJC-4550 COLOR 361000</v>
       </c>
     </row>
@@ -12539,11 +11818,11 @@
         <v>544000</v>
       </c>
       <c r="D302" s="29">
-        <f t="shared" si="8"/>
-        <v>108800</v>
+        <f>C302+(C302*IVATOT)</f>
+        <v>652800</v>
       </c>
       <c r="E302" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. CANON BJC-4650 COLOR 544000</v>
       </c>
     </row>
@@ -12558,11 +11837,11 @@
         <v>678000</v>
       </c>
       <c r="D303" s="29">
-        <f t="shared" si="8"/>
-        <v>135600</v>
+        <f>C303+(C303*IVATOT)</f>
+        <v>813600</v>
       </c>
       <c r="E303" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. CANON BJC-5500 COLOR 678000</v>
       </c>
     </row>
@@ -12577,11 +11856,11 @@
         <v>1054000</v>
       </c>
       <c r="D304" s="29">
-        <f t="shared" si="8"/>
-        <v>210800</v>
+        <f>C304+(C304*IVATOT)</f>
+        <v>1264800</v>
       </c>
       <c r="E304" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. CANON BJC-620 COLOR 1054000</v>
       </c>
     </row>
@@ -12596,11 +11875,11 @@
         <v>482000</v>
       </c>
       <c r="D305" s="29">
-        <f t="shared" si="8"/>
-        <v>96400</v>
+        <f>C305+(C305*IVATOT)</f>
+        <v>578400</v>
       </c>
       <c r="E305" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. CANON BJC-7000 COLOR 482000</v>
       </c>
     </row>
@@ -12615,11 +11894,11 @@
         <v>722000</v>
       </c>
       <c r="D306" s="29">
-        <f t="shared" si="8"/>
-        <v>144400</v>
+        <f>C306+(C306*IVATOT)</f>
+        <v>866400</v>
       </c>
       <c r="E306" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. HP 400L 722000</v>
       </c>
     </row>
@@ -12634,11 +11913,11 @@
         <v>269000</v>
       </c>
       <c r="D307" s="29">
-        <f t="shared" si="8"/>
-        <v>53800</v>
+        <f>C307+(C307*IVATOT)</f>
+        <v>322800</v>
       </c>
       <c r="E307" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. HP 670 269000</v>
       </c>
     </row>
@@ -12653,11 +11932,11 @@
         <v>371000</v>
       </c>
       <c r="D308" s="29">
-        <f t="shared" si="8"/>
-        <v>74200</v>
+        <f>C308+(C308*IVATOT)</f>
+        <v>445200</v>
       </c>
       <c r="E308" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. HP 690+ 371000</v>
       </c>
     </row>
@@ -12672,11 +11951,11 @@
         <v>462000</v>
       </c>
       <c r="D309" s="29">
-        <f t="shared" si="8"/>
-        <v>92400</v>
+        <f>C309+(C309*IVATOT)</f>
+        <v>554400</v>
       </c>
       <c r="E309" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. HP 720C 462000</v>
       </c>
     </row>
@@ -12691,11 +11970,11 @@
         <v>541000</v>
       </c>
       <c r="D310" s="29">
-        <f t="shared" si="8"/>
-        <v>108200</v>
+        <f>C310+(C310*IVATOT)</f>
+        <v>649200</v>
       </c>
       <c r="E310" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. HP 870 CXI 541000</v>
       </c>
     </row>
@@ -12710,11 +11989,11 @@
         <v>648000</v>
       </c>
       <c r="D311" s="29">
-        <f t="shared" si="8"/>
-        <v>129600</v>
+        <f>C311+(C311*IVATOT)</f>
+        <v>777600</v>
       </c>
       <c r="E311" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. HP 890C 648000</v>
       </c>
     </row>
@@ -12729,11 +12008,11 @@
         <v>644000</v>
       </c>
       <c r="D312" s="29">
-        <f t="shared" si="8"/>
-        <v>128800</v>
+        <f>C312+(C312*IVATOT)</f>
+        <v>772800</v>
       </c>
       <c r="E312" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. HP 1100C 644000</v>
       </c>
     </row>
@@ -12748,11 +12027,11 @@
         <v>902000</v>
       </c>
       <c r="D313" s="29">
-        <f t="shared" si="8"/>
-        <v>180400</v>
+        <f>C313+(C313*IVATOT)</f>
+        <v>1082400</v>
       </c>
       <c r="E313" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. HP 6L 902000</v>
       </c>
     </row>
@@ -12767,11 +12046,11 @@
         <v>722000</v>
       </c>
       <c r="D314" s="29">
-        <f t="shared" si="8"/>
-        <v>144400</v>
+        <f>C314+(C314*IVATOT)</f>
+        <v>866400</v>
       </c>
       <c r="E314" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. HP 6P 722000</v>
       </c>
     </row>
@@ -12786,11 +12065,11 @@
         <v>1457000</v>
       </c>
       <c r="D315" s="29">
-        <f t="shared" si="8"/>
-        <v>291400</v>
+        <f>C315+(C315*IVATOT)</f>
+        <v>1748400</v>
       </c>
       <c r="E315" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>STAMP. HP 6MP 1457000</v>
       </c>
     </row>
@@ -12805,11 +12084,11 @@
         <v>1786000</v>
       </c>
       <c r="D316" s="29">
-        <f t="shared" si="8"/>
-        <v>357200</v>
+        <f>C316+(C316*IVATOT)</f>
+        <v>2143200</v>
       </c>
       <c r="E316" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>CABINATI  1786000</v>
       </c>
     </row>
@@ -12819,11 +12098,11 @@
       </c>
       <c r="C317" s="32"/>
       <c r="D317" s="29">
-        <f t="shared" si="8"/>
+        <f>C317+(C317*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E317" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">CASE DESKTOP   CE CK 131-6 </v>
       </c>
     </row>
@@ -12838,11 +12117,11 @@
         <v>85000</v>
       </c>
       <c r="D318" s="29">
-        <f t="shared" si="8"/>
-        <v>17000</v>
+        <f>C318+(C318*IVATOT)</f>
+        <v>102000</v>
       </c>
       <c r="E318" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>CASE MINITOWER CE CK 136-1 85000</v>
       </c>
     </row>
@@ -12857,11 +12136,11 @@
         <v>84000</v>
       </c>
       <c r="D319" s="29">
-        <f t="shared" si="8"/>
-        <v>16800</v>
+        <f>C319+(C319*IVATOT)</f>
+        <v>100800</v>
       </c>
       <c r="E319" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>CASE MIDITOWER CE CK 135-1 84000</v>
       </c>
     </row>
@@ -12876,11 +12155,11 @@
         <v>115000</v>
       </c>
       <c r="D320" s="29">
-        <f t="shared" si="8"/>
-        <v>23000</v>
+        <f>C320+(C320*IVATOT)</f>
+        <v>138000</v>
       </c>
       <c r="E320" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>CASE BIG TOWER CE   CK139-1 115000</v>
       </c>
     </row>
@@ -12895,11 +12174,11 @@
         <v>152000</v>
       </c>
       <c r="D321" s="29">
-        <f t="shared" si="8"/>
-        <v>30400</v>
+        <f>C321+(C321*IVATOT)</f>
+        <v>182400</v>
       </c>
       <c r="E321" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>CASE DESKTOP CE CK 131-8 152000</v>
       </c>
     </row>
@@ -12914,11 +12193,11 @@
         <v>82000</v>
       </c>
       <c r="D322" s="29">
-        <f t="shared" si="8"/>
-        <v>16400</v>
+        <f>C322+(C322*IVATOT)</f>
+        <v>98400</v>
       </c>
       <c r="E322" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>CASE SUB-MIDITOWER CE  CK 132-3 82000</v>
       </c>
     </row>
@@ -12933,11 +12212,11 @@
         <v>84000</v>
       </c>
       <c r="D323" s="29">
-        <f t="shared" si="8"/>
-        <v>16800</v>
+        <f>C323+(C323*IVATOT)</f>
+        <v>100800</v>
       </c>
       <c r="E323" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>CASE  MIDITOWER CE  CK 135-2 84000</v>
       </c>
     </row>
@@ -12952,11 +12231,11 @@
         <v>115000</v>
       </c>
       <c r="D324" s="29">
-        <f t="shared" si="8"/>
-        <v>23000</v>
+        <f>C324+(C324*IVATOT)</f>
+        <v>138000</v>
       </c>
       <c r="E324" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>CASE TOWER CE CK 139-2 115000</v>
       </c>
     </row>
@@ -12971,11 +12250,11 @@
         <v>153000</v>
       </c>
       <c r="D325" s="29">
-        <f t="shared" ref="D325:D388" si="10">C325*IVATOT</f>
-        <v>30600</v>
+        <f>C325+(C325*IVATOT)</f>
+        <v>183600</v>
       </c>
       <c r="E325" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>CASE MIDITOWER BC VIP 432 153000</v>
       </c>
     </row>
@@ -12990,11 +12269,11 @@
         <v>80000</v>
       </c>
       <c r="D326" s="29">
-        <f t="shared" si="10"/>
-        <v>16000</v>
+        <f>C326+(C326*IVATOT)</f>
+        <v>96000</v>
       </c>
       <c r="E326" s="10" t="str">
-        <f t="shared" ref="E326:E340" si="11">_xlfn.CONCAT(A327," ",C326)</f>
+        <f t="shared" ref="E326:E340" si="5">_xlfn.CONCAT(A327," ",C326)</f>
         <v>CASE TOWER BC VIP 730 80000</v>
       </c>
     </row>
@@ -13009,11 +12288,11 @@
         <v>102000</v>
       </c>
       <c r="D327" s="29">
-        <f t="shared" si="10"/>
-        <v>20400</v>
+        <f>C327+(C327*IVATOT)</f>
+        <v>122400</v>
       </c>
       <c r="E327" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>GRUPPI DI CONTINUITA' 102000</v>
       </c>
     </row>
@@ -13023,11 +12302,11 @@
       </c>
       <c r="C328" s="32"/>
       <c r="D328" s="29">
-        <f t="shared" si="10"/>
+        <f>C328+(C328*IVATOT)</f>
         <v>0</v>
       </c>
       <c r="E328" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">GR.CONT.REVOLUTION E300  </v>
       </c>
     </row>
@@ -13042,11 +12321,11 @@
         <v>198000</v>
       </c>
       <c r="D329" s="29">
-        <f t="shared" si="10"/>
-        <v>39600</v>
+        <f>C329+(C329*IVATOT)</f>
+        <v>237600</v>
       </c>
       <c r="E329" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>GR.CONT.REVOLUTION F450 198000</v>
       </c>
     </row>
@@ -13061,11 +12340,11 @@
         <v>233000</v>
       </c>
       <c r="D330" s="29">
-        <f t="shared" si="10"/>
-        <v>46600</v>
+        <f>C330+(C330*IVATOT)</f>
+        <v>279600</v>
       </c>
       <c r="E330" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>GR.CONT.REVOLUTION L600 233000</v>
       </c>
     </row>
@@ -13080,11 +12359,11 @@
         <v>279000</v>
       </c>
       <c r="D331" s="29">
-        <f t="shared" si="10"/>
-        <v>55800</v>
+        <f>C331+(C331*IVATOT)</f>
+        <v>334800</v>
       </c>
       <c r="E331" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>GR.CONT.POWER PRO 600 279000</v>
       </c>
     </row>
@@ -13099,11 +12378,11 @@
         <v>298000</v>
       </c>
       <c r="D332" s="29">
-        <f t="shared" si="10"/>
-        <v>59600</v>
+        <f>C332+(C332*IVATOT)</f>
+        <v>357600</v>
       </c>
       <c r="E332" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>GR.CONT.POWER PRO 750 298000</v>
       </c>
     </row>
@@ -13118,11 +12397,11 @@
         <v>478000</v>
       </c>
       <c r="D333" s="29">
-        <f t="shared" si="10"/>
-        <v>95600</v>
+        <f>C333+(C333*IVATOT)</f>
+        <v>573600</v>
       </c>
       <c r="E333" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>GR.CONT.POWER PRO 900 478000</v>
       </c>
     </row>
@@ -13137,11 +12416,11 @@
         <v>626000</v>
       </c>
       <c r="D334" s="29">
-        <f t="shared" si="10"/>
-        <v>125200</v>
+        <f>C334+(C334*IVATOT)</f>
+        <v>751200</v>
       </c>
       <c r="E334" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>GR.CONT.POWER PRO 1000 626000</v>
       </c>
     </row>
@@ -13156,11 +12435,11 @@
         <v>757000</v>
       </c>
       <c r="D335" s="29">
-        <f t="shared" si="10"/>
-        <v>151400</v>
+        <f>C335+(C335*IVATOT)</f>
+        <v>908400</v>
       </c>
       <c r="E335" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>GR.CONT.POWER PRO 1600 757000</v>
       </c>
     </row>
@@ -13175,11 +12454,11 @@
         <v>1128000</v>
       </c>
       <c r="D336" s="29">
-        <f t="shared" si="10"/>
-        <v>225600</v>
+        <f>C336+(C336*IVATOT)</f>
+        <v>1353600</v>
       </c>
       <c r="E336" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>GR.CONT.POWER PRO 2400 1128000</v>
       </c>
     </row>
@@ -13194,11 +12473,11 @@
         <v>1527000</v>
       </c>
       <c r="D337" s="29">
-        <f t="shared" si="10"/>
-        <v>305400</v>
+        <f>C337+(C337*IVATOT)</f>
+        <v>1832400</v>
       </c>
       <c r="E337" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>GR.CONT.POWERSAVE 4000 1527000</v>
       </c>
     </row>
@@ -13213,11 +12492,11 @@
         <v>4134000</v>
       </c>
       <c r="D338" s="29">
-        <f t="shared" si="10"/>
-        <v>826800</v>
+        <f>C338+(C338*IVATOT)</f>
+        <v>4960800</v>
       </c>
       <c r="E338" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>GR.CONT.POWERSAVE 7500 4134000</v>
       </c>
     </row>
@@ -13232,11 +12511,11 @@
         <v>6850000</v>
       </c>
       <c r="D339" s="29">
-        <f t="shared" si="10"/>
-        <v>1370000</v>
+        <f>C339+(C339*IVATOT)</f>
+        <v>8220000</v>
       </c>
       <c r="E339" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>GR.CONT.POWERSAVE 12500 6850000</v>
       </c>
     </row>
@@ -13251,11 +12530,11 @@
         <v>11712000</v>
       </c>
       <c r="D340" s="29">
-        <f t="shared" si="10"/>
-        <v>2342400</v>
+        <f>C340+(C340*IVATOT)</f>
+        <v>14054400</v>
       </c>
       <c r="E340" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> 11712000</v>
       </c>
     </row>
@@ -13475,8 +12754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E84EC9-8362-43B7-828D-B90901E4F213}">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -13528,7 +12807,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f t="shared" ref="D4:D10" si="0">VLOOKUP(C4,$F$3:$H$6,2,0)</f>
+        <f>VLOOKUP(Tabella2[[#This Row],[Punteggio]],$F$3:$H$6,2,0)</f>
         <v>Sufficiente</v>
       </c>
       <c r="F4" s="19">
@@ -13549,7 +12828,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(Tabella2[[#This Row],[Punteggio]],$F$3:$H$6,2,0)</f>
         <v>Discreto</v>
       </c>
       <c r="F5" s="19">
@@ -13570,7 +12849,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(Tabella2[[#This Row],[Punteggio]],$F$3:$H$6,2,0)</f>
         <v>Discreto</v>
       </c>
       <c r="F6" s="17">
@@ -13591,7 +12870,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(Tabella2[[#This Row],[Punteggio]],$F$3:$H$6,2,0)</f>
         <v>Sufficiente</v>
       </c>
     </row>
@@ -13603,7 +12882,7 @@
         <v>70</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(Tabella2[[#This Row],[Punteggio]],$F$3:$H$6,2,0)</f>
         <v>Buono</v>
       </c>
     </row>
@@ -13615,7 +12894,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(Tabella2[[#This Row],[Punteggio]],$F$3:$H$6,2,0)</f>
         <v>Respinto</v>
       </c>
     </row>
@@ -13627,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(Tabella2[[#This Row],[Punteggio]],$F$3:$H$6,2,0)</f>
         <v>Respinto</v>
       </c>
     </row>
@@ -13744,21 +13023,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10">
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>"Buono"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>"Discreto"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="equal">
       <formula>"Sufficiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
       <formula>"Respinto"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13796,6 +13075,80 @@
           <xm:sqref>C4:C10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{32E63ECB-8C69-470A-BEA6-E5BBAEC52770}">
+            <xm:f>NOT(ISERROR(SEARCH($G$5,D1)))</xm:f>
+            <xm:f>$G$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="3"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{2EF0B3C8-3587-4128-A4BE-DAE649198317}">
+            <xm:f>NOT(ISERROR(SEARCH($G$5,D1)))</xm:f>
+            <xm:f>$G$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <fgColor theme="3"/>
+                  <bgColor theme="3" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{B40DBD4A-CA68-4011-AA3C-07E53C04A0E2}">
+            <xm:f>NOT(ISERROR(SEARCH($G$6,D1)))</xm:f>
+            <xm:f>$G$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{D5E442A1-AF5B-4575-B40C-720D887B9A08}">
+            <xm:f>NOT(ISERROR(SEARCH($G$5,D1)))</xm:f>
+            <xm:f>$G$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="3" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{763C3C8C-940C-4097-9977-D06058E8EC64}">
+            <xm:f>NOT(ISERROR(SEARCH($G$4,D1)))</xm:f>
+            <xm:f>$G$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{1A5E67AB-C9CD-4DD2-A77E-87FFE80AB6D6}">
+            <xm:f>NOT(ISERROR(SEARCH($G$3,D1)))</xm:f>
+            <xm:f>$G$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <x14:cfRule type="containsText" priority="9" operator="containsText" id="{CA25B435-2969-411B-A00B-53BEB3BA9E63}">
             <xm:f>NOT(ISERROR(SEARCH($H$6,D1)))</xm:f>
             <xm:f>$H$6</xm:f>
@@ -13849,80 +13202,6 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{1A5E67AB-C9CD-4DD2-A77E-87FFE80AB6D6}">
-            <xm:f>NOT(ISERROR(SEARCH($G$3,D1)))</xm:f>
-            <xm:f>$G$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{763C3C8C-940C-4097-9977-D06058E8EC64}">
-            <xm:f>NOT(ISERROR(SEARCH($G$4,D1)))</xm:f>
-            <xm:f>$G$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{D5E442A1-AF5B-4575-B40C-720D887B9A08}">
-            <xm:f>NOT(ISERROR(SEARCH($G$5,D1)))</xm:f>
-            <xm:f>$G$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="3" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{B40DBD4A-CA68-4011-AA3C-07E53C04A0E2}">
-            <xm:f>NOT(ISERROR(SEARCH($G$6,D1)))</xm:f>
-            <xm:f>$G$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{2EF0B3C8-3587-4128-A4BE-DAE649198317}">
-            <xm:f>NOT(ISERROR(SEARCH($G$5,D1)))</xm:f>
-            <xm:f>$G$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <fgColor theme="3"/>
-                  <bgColor theme="3" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{32E63ECB-8C69-470A-BEA6-E5BBAEC52770}">
-            <xm:f>NOT(ISERROR(SEARCH($G$5,D1)))</xm:f>
-            <xm:f>$G$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="3"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
           <xm:sqref>D1:D1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
@@ -13936,7 +13215,7 @@
   <dimension ref="C1:J16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -14106,7 +13385,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -14238,7 +13517,7 @@
   <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -15714,7 +14993,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -16206,8 +15485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8039418F-BBFD-4FF5-84C2-843699CCF006}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -16340,7 +15619,7 @@
         <v>7846</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I29" ca="1" si="4">WORKDAY($F$4,A8)</f>
+        <f ca="1">WORKDAY($F$4,A8)</f>
         <v>97274</v>
       </c>
     </row>
@@ -16374,7 +15653,7 @@
         <v>6389</v>
       </c>
       <c r="I9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="I8:I29" ca="1" si="4">WORKDAY($F$4,A9)</f>
         <v>99313</v>
       </c>
     </row>
